--- a/raw_data/20200818_saline/20200818_Sensor3_Test_79.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_79.xlsx
@@ -1,945 +1,1361 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC68D67B-673A-4F68-AA08-50093D488513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>70760.093224</v>
+        <v>70760.093223999997</v>
       </c>
       <c r="B2" s="1">
-        <v>19.655581</v>
+        <v>19.655581000000002</v>
       </c>
       <c r="C2" s="1">
-        <v>1149.540000</v>
+        <v>1149.54</v>
       </c>
       <c r="D2" s="1">
-        <v>-251.437000</v>
+        <v>-251.43700000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>70770.389674</v>
+        <v>70770.389674000005</v>
       </c>
       <c r="G2" s="1">
-        <v>19.658442</v>
+        <v>19.658442000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1169.060000</v>
+        <v>1169.06</v>
       </c>
       <c r="I2" s="1">
-        <v>-211.661000</v>
+        <v>-211.661</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>70780.897945</v>
+        <v>70780.897945000004</v>
       </c>
       <c r="L2" s="1">
-        <v>19.661361</v>
+        <v>19.661360999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>1197.230000</v>
+        <v>1197.23</v>
       </c>
       <c r="N2" s="1">
-        <v>-148.391000</v>
+        <v>-148.39099999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>70791.055287</v>
+        <v>70791.055286999996</v>
       </c>
       <c r="Q2" s="1">
         <v>19.664182</v>
       </c>
       <c r="R2" s="1">
-        <v>1204.880000</v>
+        <v>1204.8800000000001</v>
       </c>
       <c r="S2" s="1">
-        <v>-127.054000</v>
+        <v>-127.054</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>70801.637632</v>
+        <v>70801.637631999998</v>
       </c>
       <c r="V2" s="1">
-        <v>19.667122</v>
+        <v>19.667121999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1212.590000</v>
+        <v>1212.5899999999999</v>
       </c>
       <c r="X2" s="1">
-        <v>-106.908000</v>
+        <v>-106.908</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>70811.967356</v>
+        <v>70811.967355999994</v>
       </c>
       <c r="AA2" s="1">
         <v>19.669991</v>
       </c>
       <c r="AB2" s="1">
-        <v>1220.400000</v>
+        <v>1220.4000000000001</v>
       </c>
       <c r="AC2" s="1">
-        <v>-90.528000</v>
+        <v>-90.528000000000006</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>70822.508825</v>
+        <v>70822.508824999997</v>
       </c>
       <c r="AF2" s="1">
         <v>19.672919</v>
       </c>
       <c r="AG2" s="1">
-        <v>1225.400000</v>
+        <v>1225.4000000000001</v>
       </c>
       <c r="AH2" s="1">
-        <v>-86.382100</v>
+        <v>-86.382099999999994</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>70832.616760</v>
+        <v>70832.616760000004</v>
       </c>
       <c r="AK2" s="1">
-        <v>19.675727</v>
+        <v>19.675726999999998</v>
       </c>
       <c r="AL2" s="1">
-        <v>1232.670000</v>
+        <v>1232.67</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.727800</v>
+        <v>-89.727800000000002</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>70843.207337</v>
       </c>
       <c r="AP2" s="1">
-        <v>19.678669</v>
+        <v>19.678668999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1240.790000</v>
+        <v>1240.79</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.710000</v>
+        <v>-101.71</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>70854.562289</v>
+        <v>70854.562288999994</v>
       </c>
       <c r="AU2" s="1">
-        <v>19.681823</v>
+        <v>19.681823000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1250.850000</v>
+        <v>1250.8499999999999</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.133000</v>
+        <v>-121.133</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>70865.998696</v>
+        <v>70865.998695999995</v>
       </c>
       <c r="AZ2" s="1">
-        <v>19.685000</v>
+        <v>19.684999999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1259.330000</v>
+        <v>1259.33</v>
       </c>
       <c r="BB2" s="1">
-        <v>-138.641000</v>
+        <v>-138.64099999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>70876.977951</v>
+        <v>70876.977950999993</v>
       </c>
       <c r="BE2" s="1">
-        <v>19.688049</v>
+        <v>19.688048999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1299.730000</v>
+        <v>1299.73</v>
       </c>
       <c r="BG2" s="1">
-        <v>-220.928000</v>
+        <v>-220.928</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>70888.436558</v>
+        <v>70888.436558000001</v>
       </c>
       <c r="BJ2" s="1">
-        <v>19.691232</v>
+        <v>19.691231999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1370.320000</v>
+        <v>1370.32</v>
       </c>
       <c r="BL2" s="1">
-        <v>-357.584000</v>
+        <v>-357.584</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>70899.941726</v>
+        <v>70899.941726000005</v>
       </c>
       <c r="BO2" s="1">
-        <v>19.694428</v>
+        <v>19.694427999999998</v>
       </c>
       <c r="BP2" s="1">
-        <v>1486.400000</v>
+        <v>1486.4</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-578.804000</v>
+        <v>-578.80399999999997</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>70910.698996</v>
+        <v>70910.698996000006</v>
       </c>
       <c r="BT2" s="1">
         <v>19.697416</v>
       </c>
       <c r="BU2" s="1">
-        <v>1619.880000</v>
+        <v>1619.88</v>
       </c>
       <c r="BV2" s="1">
-        <v>-827.755000</v>
+        <v>-827.755</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>70921.684850</v>
+        <v>70921.684850000005</v>
       </c>
       <c r="BY2" s="1">
-        <v>19.700468</v>
+        <v>19.700468000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1773.360000</v>
+        <v>1773.36</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1096.220000</v>
+        <v>-1096.22</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>70932.767956</v>
+        <v>70932.767955999996</v>
       </c>
       <c r="CD2" s="1">
         <v>19.703547</v>
       </c>
       <c r="CE2" s="1">
-        <v>2191.920000</v>
+        <v>2191.92</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1746.710000</v>
+        <v>-1746.71</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>70760.452824</v>
+        <v>70760.452824000007</v>
       </c>
       <c r="B3" s="1">
-        <v>19.655681</v>
+        <v>19.655681000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>1149.550000</v>
+        <v>1149.55</v>
       </c>
       <c r="D3" s="1">
-        <v>-251.166000</v>
+        <v>-251.166</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>70770.770105</v>
+        <v>70770.770105000003</v>
       </c>
       <c r="G3" s="1">
-        <v>19.658547</v>
+        <v>19.658546999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>1169.920000</v>
+        <v>1169.92</v>
       </c>
       <c r="I3" s="1">
-        <v>-211.441000</v>
+        <v>-211.441</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>70781.306301</v>
+        <v>70781.306301000004</v>
       </c>
       <c r="L3" s="1">
-        <v>19.661474</v>
+        <v>19.661473999999998</v>
       </c>
       <c r="M3" s="1">
-        <v>1196.890000</v>
+        <v>1196.8900000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-148.154000</v>
+        <v>-148.154</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>70791.476096</v>
+        <v>70791.476095999999</v>
       </c>
       <c r="Q3" s="1">
         <v>19.664299</v>
       </c>
       <c r="R3" s="1">
-        <v>1205.010000</v>
+        <v>1205.01</v>
       </c>
       <c r="S3" s="1">
-        <v>-127.027000</v>
+        <v>-127.027</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>70802.042865</v>
+        <v>70802.042864999996</v>
       </c>
       <c r="V3" s="1">
-        <v>19.667234</v>
+        <v>19.667234000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>1212.630000</v>
+        <v>1212.6300000000001</v>
       </c>
       <c r="X3" s="1">
-        <v>-107.143000</v>
+        <v>-107.143</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>70812.318020</v>
+        <v>70812.318020000006</v>
       </c>
       <c r="AA3" s="1">
         <v>19.670088</v>
       </c>
       <c r="AB3" s="1">
-        <v>1220.460000</v>
+        <v>1220.46</v>
       </c>
       <c r="AC3" s="1">
-        <v>-90.562300</v>
+        <v>-90.562299999999993</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>70822.879302</v>
+        <v>70822.879302000001</v>
       </c>
       <c r="AF3" s="1">
         <v>19.673022</v>
       </c>
       <c r="AG3" s="1">
-        <v>1225.390000</v>
+        <v>1225.3900000000001</v>
       </c>
       <c r="AH3" s="1">
-        <v>-86.210800</v>
+        <v>-86.210800000000006</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>70833.005624</v>
+        <v>70833.005623999998</v>
       </c>
       <c r="AK3" s="1">
-        <v>19.675835</v>
+        <v>19.675834999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1232.680000</v>
+        <v>1232.68</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.740800</v>
+        <v>-89.740799999999993</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>70843.609098</v>
+        <v>70843.609098000001</v>
       </c>
       <c r="AP3" s="1">
-        <v>19.678780</v>
+        <v>19.67878</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1240.780000</v>
+        <v>1240.78</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.730000</v>
+        <v>-101.73</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>70855.308763</v>
+        <v>70855.308762999994</v>
       </c>
       <c r="AU3" s="1">
-        <v>19.682030</v>
+        <v>19.682030000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1250.820000</v>
+        <v>1250.82</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.123000</v>
+        <v>-121.123</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>70866.425067</v>
+        <v>70866.425067000004</v>
       </c>
       <c r="AZ3" s="1">
-        <v>19.685118</v>
+        <v>19.685117999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1259.310000</v>
+        <v>1259.31</v>
       </c>
       <c r="BB3" s="1">
-        <v>-138.655000</v>
+        <v>-138.655</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>70877.356396</v>
+        <v>70877.356396000003</v>
       </c>
       <c r="BE3" s="1">
-        <v>19.688155</v>
+        <v>19.688154999999998</v>
       </c>
       <c r="BF3" s="1">
-        <v>1299.730000</v>
+        <v>1299.73</v>
       </c>
       <c r="BG3" s="1">
-        <v>-220.902000</v>
+        <v>-220.90199999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>70888.823903</v>
+        <v>70888.823902999997</v>
       </c>
       <c r="BJ3" s="1">
-        <v>19.691340</v>
+        <v>19.69134</v>
       </c>
       <c r="BK3" s="1">
-        <v>1370.270000</v>
+        <v>1370.27</v>
       </c>
       <c r="BL3" s="1">
-        <v>-357.596000</v>
+        <v>-357.596</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>70900.363822</v>
+        <v>70900.363821999999</v>
       </c>
       <c r="BO3" s="1">
-        <v>19.694546</v>
+        <v>19.694545999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1486.390000</v>
+        <v>1486.39</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-578.851000</v>
+        <v>-578.851</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>70911.455361</v>
@@ -948,951 +1364,951 @@
         <v>19.697626</v>
       </c>
       <c r="BU3" s="1">
-        <v>1619.990000</v>
+        <v>1619.99</v>
       </c>
       <c r="BV3" s="1">
-        <v>-827.821000</v>
+        <v>-827.82100000000003</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>70921.861921</v>
+        <v>70921.861921000003</v>
       </c>
       <c r="BY3" s="1">
-        <v>19.700517</v>
+        <v>19.700517000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1773.310000</v>
+        <v>1773.31</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1096.320000</v>
+        <v>-1096.32</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>70933.044227</v>
+        <v>70933.044227000006</v>
       </c>
       <c r="CD3" s="1">
         <v>19.703623</v>
       </c>
       <c r="CE3" s="1">
-        <v>2191.450000</v>
+        <v>2191.4499999999998</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1747.470000</v>
+        <v>-1747.47</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>70760.883884</v>
+        <v>70760.883883999995</v>
       </c>
       <c r="B4" s="1">
         <v>19.655801</v>
       </c>
       <c r="C4" s="1">
-        <v>1149.150000</v>
+        <v>1149.1500000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-251.318000</v>
+        <v>-251.31800000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>70771.195177</v>
+        <v>70771.195177000001</v>
       </c>
       <c r="G4" s="1">
-        <v>19.658665</v>
+        <v>19.658664999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>1170.030000</v>
+        <v>1170.03</v>
       </c>
       <c r="I4" s="1">
-        <v>-211.407000</v>
+        <v>-211.40700000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>70781.628028</v>
+        <v>70781.628028000006</v>
       </c>
       <c r="L4" s="1">
-        <v>19.661563</v>
+        <v>19.661563000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>1197.040000</v>
+        <v>1197.04</v>
       </c>
       <c r="N4" s="1">
-        <v>-148.106000</v>
+        <v>-148.10599999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>70791.819327</v>
+        <v>70791.819327000005</v>
       </c>
       <c r="Q4" s="1">
-        <v>19.664394</v>
+        <v>19.664394000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>1205.020000</v>
+        <v>1205.02</v>
       </c>
       <c r="S4" s="1">
-        <v>-126.950000</v>
+        <v>-126.95</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>70802.384610</v>
+        <v>70802.384609999994</v>
       </c>
       <c r="V4" s="1">
-        <v>19.667329</v>
+        <v>19.667328999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1212.430000</v>
+        <v>1212.43</v>
       </c>
       <c r="X4" s="1">
-        <v>-106.972000</v>
+        <v>-106.97199999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>70812.663698</v>
+        <v>70812.663698000004</v>
       </c>
       <c r="AA4" s="1">
-        <v>19.670184</v>
+        <v>19.670183999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1220.370000</v>
+        <v>1220.3699999999999</v>
       </c>
       <c r="AC4" s="1">
-        <v>-90.491200</v>
+        <v>-90.491200000000006</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>70823.223556</v>
+        <v>70823.223555999997</v>
       </c>
       <c r="AF4" s="1">
-        <v>19.673118</v>
+        <v>19.673117999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>1225.350000</v>
+        <v>1225.3499999999999</v>
       </c>
       <c r="AH4" s="1">
-        <v>-86.254200</v>
+        <v>-86.254199999999997</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>70833.701685</v>
+        <v>70833.701685000007</v>
       </c>
       <c r="AK4" s="1">
-        <v>19.676028</v>
+        <v>19.676027999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>1232.700000</v>
+        <v>1232.7</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.723200</v>
+        <v>-89.723200000000006</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>70844.328297</v>
       </c>
       <c r="AP4" s="1">
-        <v>19.678980</v>
+        <v>19.678979999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1240.770000</v>
+        <v>1240.77</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.719000</v>
+        <v>-101.71899999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>70855.672794</v>
+        <v>70855.672793999998</v>
       </c>
       <c r="AU4" s="1">
-        <v>19.682131</v>
+        <v>19.682130999999998</v>
       </c>
       <c r="AV4" s="1">
-        <v>1250.840000</v>
+        <v>1250.8399999999999</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.134000</v>
+        <v>-121.134</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>70866.784699</v>
+        <v>70866.784698999996</v>
       </c>
       <c r="AZ4" s="1">
-        <v>19.685218</v>
+        <v>19.685217999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1259.360000</v>
+        <v>1259.3599999999999</v>
       </c>
       <c r="BB4" s="1">
-        <v>-138.663000</v>
+        <v>-138.66300000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>70877.718972</v>
+        <v>70877.718972000002</v>
       </c>
       <c r="BE4" s="1">
-        <v>19.688255</v>
+        <v>19.688255000000002</v>
       </c>
       <c r="BF4" s="1">
-        <v>1299.700000</v>
+        <v>1299.7</v>
       </c>
       <c r="BG4" s="1">
-        <v>-220.913000</v>
+        <v>-220.91300000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>70889.504454</v>
+        <v>70889.504453999994</v>
       </c>
       <c r="BJ4" s="1">
-        <v>19.691529</v>
+        <v>19.691528999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1370.290000</v>
+        <v>1370.29</v>
       </c>
       <c r="BL4" s="1">
-        <v>-357.555000</v>
+        <v>-357.55500000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>70901.089500</v>
+        <v>70901.089500000002</v>
       </c>
       <c r="BO4" s="1">
         <v>19.694747</v>
       </c>
       <c r="BP4" s="1">
-        <v>1486.410000</v>
+        <v>1486.41</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-578.837000</v>
+        <v>-578.83699999999999</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>70911.562993</v>
       </c>
       <c r="BT4" s="1">
-        <v>19.697656</v>
+        <v>19.697655999999998</v>
       </c>
       <c r="BU4" s="1">
-        <v>1620.150000</v>
+        <v>1620.15</v>
       </c>
       <c r="BV4" s="1">
-        <v>-827.848000</v>
+        <v>-827.84799999999996</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>70922.313282</v>
+        <v>70922.313282000003</v>
       </c>
       <c r="BY4" s="1">
-        <v>19.700643</v>
+        <v>19.700642999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1773.430000</v>
+        <v>1773.43</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1096.480000</v>
+        <v>-1096.48</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>70933.570978</v>
+        <v>70933.570978000003</v>
       </c>
       <c r="CD4" s="1">
-        <v>19.703770</v>
+        <v>19.703769999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>2191.500000</v>
+        <v>2191.5</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1745.160000</v>
+        <v>-1745.16</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>70761.164582</v>
+        <v>70761.164581999998</v>
       </c>
       <c r="B5" s="1">
-        <v>19.655879</v>
+        <v>19.655878999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>1149.280000</v>
+        <v>1149.28</v>
       </c>
       <c r="D5" s="1">
-        <v>-251.314000</v>
+        <v>-251.31399999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>70771.491288</v>
+        <v>70771.491288000005</v>
       </c>
       <c r="G5" s="1">
-        <v>19.658748</v>
+        <v>19.658747999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>1169.150000</v>
+        <v>1169.1500000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>-211.820000</v>
+        <v>-211.82</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>70781.975722</v>
+        <v>70781.975722000003</v>
       </c>
       <c r="L5" s="1">
-        <v>19.661660</v>
+        <v>19.661660000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>1196.860000</v>
+        <v>1196.8599999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-148.150000</v>
+        <v>-148.15</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>70792.169005</v>
+        <v>70792.169005000003</v>
       </c>
       <c r="Q5" s="1">
-        <v>19.664491</v>
+        <v>19.664491000000002</v>
       </c>
       <c r="R5" s="1">
-        <v>1204.970000</v>
+        <v>1204.97</v>
       </c>
       <c r="S5" s="1">
-        <v>-127.013000</v>
+        <v>-127.01300000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>70802.730815</v>
+        <v>70802.730815000003</v>
       </c>
       <c r="V5" s="1">
-        <v>19.667425</v>
+        <v>19.667425000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1212.440000</v>
+        <v>1212.44</v>
       </c>
       <c r="X5" s="1">
-        <v>-107.024000</v>
+        <v>-107.024</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>70813.363587</v>
       </c>
       <c r="AA5" s="1">
-        <v>19.670379</v>
+        <v>19.670379000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1220.390000</v>
+        <v>1220.3900000000001</v>
       </c>
       <c r="AC5" s="1">
-        <v>-90.565000</v>
+        <v>-90.564999999999998</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>70823.909527</v>
+        <v>70823.909526999996</v>
       </c>
       <c r="AF5" s="1">
-        <v>19.673308</v>
+        <v>19.673307999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>1225.340000</v>
+        <v>1225.3399999999999</v>
       </c>
       <c r="AH5" s="1">
-        <v>-86.254800</v>
+        <v>-86.254800000000003</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>70834.049728</v>
+        <v>70834.049727999998</v>
       </c>
       <c r="AK5" s="1">
-        <v>19.676125</v>
+        <v>19.676124999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>1232.710000</v>
+        <v>1232.71</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.729000</v>
+        <v>-89.728999999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>70844.689879</v>
+        <v>70844.689878999998</v>
       </c>
       <c r="AP5" s="1">
         <v>19.679081</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1240.770000</v>
+        <v>1240.77</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.748000</v>
+        <v>-101.748</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>70856.037848</v>
+        <v>70856.037848000007</v>
       </c>
       <c r="AU5" s="1">
         <v>19.682233</v>
       </c>
       <c r="AV5" s="1">
-        <v>1250.850000</v>
+        <v>1250.8499999999999</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.104000</v>
+        <v>-121.104</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>70867.443353</v>
+        <v>70867.443352999995</v>
       </c>
       <c r="AZ5" s="1">
-        <v>19.685401</v>
+        <v>19.685400999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1259.340000</v>
+        <v>1259.3399999999999</v>
       </c>
       <c r="BB5" s="1">
-        <v>-138.664000</v>
+        <v>-138.66399999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>70878.382621</v>
+        <v>70878.382620999997</v>
       </c>
       <c r="BE5" s="1">
-        <v>19.688440</v>
+        <v>19.68844</v>
       </c>
       <c r="BF5" s="1">
-        <v>1299.730000</v>
+        <v>1299.73</v>
       </c>
       <c r="BG5" s="1">
-        <v>-220.936000</v>
+        <v>-220.93600000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>70889.983549</v>
+        <v>70889.983548999997</v>
       </c>
       <c r="BJ5" s="1">
-        <v>19.691662</v>
+        <v>19.691662000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1370.330000</v>
+        <v>1370.33</v>
       </c>
       <c r="BL5" s="1">
-        <v>-357.639000</v>
+        <v>-357.63900000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>70901.200078</v>
+        <v>70901.200077999994</v>
       </c>
       <c r="BO5" s="1">
-        <v>19.694778</v>
+        <v>19.694777999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1486.390000</v>
+        <v>1486.39</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-578.872000</v>
+        <v>-578.87199999999996</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>70912.002944</v>
+        <v>70912.002944000007</v>
       </c>
       <c r="BT5" s="1">
-        <v>19.697779</v>
+        <v>19.697779000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1620.250000</v>
+        <v>1620.25</v>
       </c>
       <c r="BV5" s="1">
-        <v>-827.752000</v>
+        <v>-827.75199999999995</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>70922.768148</v>
+        <v>70922.768148000003</v>
       </c>
       <c r="BY5" s="1">
-        <v>19.700769</v>
+        <v>19.700769000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1773.520000</v>
+        <v>1773.52</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1096.390000</v>
+        <v>-1096.3900000000001</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>70934.113633</v>
+        <v>70934.113633000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>19.703920</v>
+        <v>19.70392</v>
       </c>
       <c r="CE5" s="1">
-        <v>2189.900000</v>
+        <v>2189.9</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1746.580000</v>
+        <v>-1746.58</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>70761.506831</v>
+        <v>70761.506831000006</v>
       </c>
       <c r="B6" s="1">
-        <v>19.655974</v>
+        <v>19.655974000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>1149.300000</v>
+        <v>1149.3</v>
       </c>
       <c r="D6" s="1">
-        <v>-251.246000</v>
+        <v>-251.24600000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>70771.836504</v>
+        <v>70771.836504000006</v>
       </c>
       <c r="G6" s="1">
-        <v>19.658843</v>
+        <v>19.658843000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>1170.490000</v>
+        <v>1170.49</v>
       </c>
       <c r="I6" s="1">
-        <v>-211.417000</v>
+        <v>-211.417</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>70782.319485</v>
       </c>
       <c r="L6" s="1">
-        <v>19.661755</v>
+        <v>19.661754999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1196.830000</v>
+        <v>1196.83</v>
       </c>
       <c r="N6" s="1">
-        <v>-148.351000</v>
+        <v>-148.351</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>70792.512770</v>
+        <v>70792.512770000001</v>
       </c>
       <c r="Q6" s="1">
-        <v>19.664587</v>
+        <v>19.664587000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1204.890000</v>
+        <v>1204.8900000000001</v>
       </c>
       <c r="S6" s="1">
-        <v>-126.974000</v>
+        <v>-126.974</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>70803.417774</v>
+        <v>70803.417774000001</v>
       </c>
       <c r="V6" s="1">
-        <v>19.667616</v>
+        <v>19.667615999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>1212.450000</v>
+        <v>1212.45</v>
       </c>
       <c r="X6" s="1">
-        <v>-106.939000</v>
+        <v>-106.93899999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>70813.712240</v>
+        <v>70813.712239999993</v>
       </c>
       <c r="AA6" s="1">
-        <v>19.670476</v>
+        <v>19.670476000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1220.500000</v>
+        <v>1220.5</v>
       </c>
       <c r="AC6" s="1">
-        <v>-90.603100</v>
+        <v>-90.603099999999998</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>70824.258178</v>
+        <v>70824.258178000004</v>
       </c>
       <c r="AF6" s="1">
-        <v>19.673405</v>
+        <v>19.673404999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>1225.310000</v>
+        <v>1225.31</v>
       </c>
       <c r="AH6" s="1">
-        <v>-86.258600</v>
+        <v>-86.258600000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>70834.399382</v>
+        <v>70834.399382000003</v>
       </c>
       <c r="AK6" s="1">
-        <v>19.676222</v>
+        <v>19.676221999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>1232.710000</v>
+        <v>1232.71</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.761500</v>
+        <v>-89.761499999999998</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>70845.051465</v>
+        <v>70845.051464999997</v>
       </c>
       <c r="AP6" s="1">
         <v>19.679181</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1240.780000</v>
+        <v>1240.78</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.725000</v>
+        <v>-101.72499999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>70856.716873</v>
+        <v>70856.716872999998</v>
       </c>
       <c r="AU6" s="1">
-        <v>19.682421</v>
+        <v>19.682421000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1250.830000</v>
+        <v>1250.83</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.123000</v>
+        <v>-121.123</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>70867.868466</v>
       </c>
       <c r="AZ6" s="1">
-        <v>19.685519</v>
+        <v>19.685518999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1259.340000</v>
+        <v>1259.3399999999999</v>
       </c>
       <c r="BB6" s="1">
-        <v>-138.689000</v>
+        <v>-138.68899999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>70878.835994</v>
+        <v>70878.835993999994</v>
       </c>
       <c r="BE6" s="1">
-        <v>19.688566</v>
+        <v>19.688566000000002</v>
       </c>
       <c r="BF6" s="1">
-        <v>1299.710000</v>
+        <v>1299.71</v>
       </c>
       <c r="BG6" s="1">
-        <v>-220.906000</v>
+        <v>-220.90600000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>70890.359517</v>
+        <v>70890.359517000004</v>
       </c>
       <c r="BJ6" s="1">
-        <v>19.691767</v>
+        <v>19.691766999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1370.330000</v>
+        <v>1370.33</v>
       </c>
       <c r="BL6" s="1">
-        <v>-357.606000</v>
+        <v>-357.60599999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>70901.599889</v>
+        <v>70901.599889000005</v>
       </c>
       <c r="BO6" s="1">
         <v>19.694889</v>
       </c>
       <c r="BP6" s="1">
-        <v>1486.360000</v>
+        <v>1486.36</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-578.807000</v>
+        <v>-578.80700000000002</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>70912.418590</v>
+        <v>70912.418590000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>19.697894</v>
+        <v>19.697894000000002</v>
       </c>
       <c r="BU6" s="1">
-        <v>1620.320000</v>
+        <v>1620.32</v>
       </c>
       <c r="BV6" s="1">
-        <v>-827.696000</v>
+        <v>-827.69600000000003</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>70923.216991</v>
+        <v>70923.216990999994</v>
       </c>
       <c r="BY6" s="1">
-        <v>19.700894</v>
+        <v>19.700894000000002</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1773.170000</v>
+        <v>1773.17</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1096.420000</v>
+        <v>-1096.42</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>70934.656260</v>
+        <v>70934.656260000003</v>
       </c>
       <c r="CD6" s="1">
-        <v>19.704071</v>
+        <v>19.704070999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>2192.320000</v>
+        <v>2192.3200000000002</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1746.300000</v>
+        <v>-1746.3</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>70761.846086</v>
+        <v>70761.846086000005</v>
       </c>
       <c r="B7" s="1">
-        <v>19.656068</v>
+        <v>19.656068000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>1149.570000</v>
+        <v>1149.57</v>
       </c>
       <c r="D7" s="1">
-        <v>-251.300000</v>
+        <v>-251.3</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>70772.179736</v>
+        <v>70772.179736000006</v>
       </c>
       <c r="G7" s="1">
         <v>19.658939</v>
       </c>
       <c r="H7" s="1">
-        <v>1168.810000</v>
+        <v>1168.81</v>
       </c>
       <c r="I7" s="1">
-        <v>-212.090000</v>
+        <v>-212.09</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>70783.010906</v>
+        <v>70783.010905999996</v>
       </c>
       <c r="L7" s="1">
-        <v>19.661947</v>
+        <v>19.661947000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>1197.150000</v>
+        <v>1197.1500000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-148.257000</v>
+        <v>-148.25700000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>70793.265195</v>
       </c>
       <c r="Q7" s="1">
-        <v>19.664796</v>
+        <v>19.664795999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1204.950000</v>
+        <v>1204.95</v>
       </c>
       <c r="S7" s="1">
-        <v>-126.923000</v>
+        <v>-126.923</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>70803.758062</v>
+        <v>70803.758061999994</v>
       </c>
       <c r="V7" s="1">
-        <v>19.667711</v>
+        <v>19.667711000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>1212.470000</v>
+        <v>1212.47</v>
       </c>
       <c r="X7" s="1">
-        <v>-107.065000</v>
+        <v>-107.065</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>70814.061424</v>
       </c>
       <c r="AA7" s="1">
-        <v>19.670573</v>
+        <v>19.670573000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1220.410000</v>
+        <v>1220.4100000000001</v>
       </c>
       <c r="AC7" s="1">
-        <v>-90.529500</v>
+        <v>-90.529499999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>70824.600915</v>
+        <v>70824.600915000003</v>
       </c>
       <c r="AF7" s="1">
-        <v>19.673500</v>
+        <v>19.673500000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>1225.410000</v>
+        <v>1225.4100000000001</v>
       </c>
       <c r="AH7" s="1">
-        <v>-86.275200</v>
+        <v>-86.275199999999998</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>70835.069015</v>
+        <v>70835.069015000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>19.676408</v>
+        <v>19.676407999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1232.680000</v>
+        <v>1232.68</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.725100</v>
+        <v>-89.725099999999998</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>70845.721596</v>
+        <v>70845.721596000003</v>
       </c>
       <c r="AP7" s="1">
-        <v>19.679367</v>
+        <v>19.679366999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1240.790000</v>
+        <v>1240.79</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.730000</v>
+        <v>-101.73</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>70857.132759</v>
@@ -1901,2643 +2317,2643 @@
         <v>19.682537</v>
       </c>
       <c r="AV7" s="1">
-        <v>1250.850000</v>
+        <v>1250.8499999999999</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.126000</v>
+        <v>-121.126</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>70868.242904</v>
+        <v>70868.242903999999</v>
       </c>
       <c r="AZ7" s="1">
         <v>19.685623</v>
       </c>
       <c r="BA7" s="1">
-        <v>1259.320000</v>
+        <v>1259.32</v>
       </c>
       <c r="BB7" s="1">
-        <v>-138.656000</v>
+        <v>-138.65600000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>70879.195563</v>
+        <v>70879.195563000001</v>
       </c>
       <c r="BE7" s="1">
         <v>19.688665</v>
       </c>
       <c r="BF7" s="1">
-        <v>1299.740000</v>
+        <v>1299.74</v>
       </c>
       <c r="BG7" s="1">
-        <v>-220.917000</v>
+        <v>-220.917</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>70890.762280</v>
+        <v>70890.762279999995</v>
       </c>
       <c r="BJ7" s="1">
-        <v>19.691878</v>
+        <v>19.691877999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1370.300000</v>
+        <v>1370.3</v>
       </c>
       <c r="BL7" s="1">
-        <v>-357.609000</v>
+        <v>-357.60899999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>70902.071053</v>
+        <v>70902.071053000007</v>
       </c>
       <c r="BO7" s="1">
-        <v>19.695020</v>
+        <v>19.69502</v>
       </c>
       <c r="BP7" s="1">
-        <v>1486.400000</v>
+        <v>1486.4</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-578.880000</v>
+        <v>-578.88</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>70912.845151</v>
+        <v>70912.845151000001</v>
       </c>
       <c r="BT7" s="1">
         <v>19.698013</v>
       </c>
       <c r="BU7" s="1">
-        <v>1620.380000</v>
+        <v>1620.38</v>
       </c>
       <c r="BV7" s="1">
-        <v>-827.589000</v>
+        <v>-827.58900000000006</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>70923.674799</v>
       </c>
       <c r="BY7" s="1">
-        <v>19.701021</v>
+        <v>19.701021000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1773.580000</v>
+        <v>1773.58</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1096.400000</v>
+        <v>-1096.4000000000001</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>70935.195873</v>
+        <v>70935.195873000004</v>
       </c>
       <c r="CD7" s="1">
         <v>19.704221</v>
       </c>
       <c r="CE7" s="1">
-        <v>2189.980000</v>
+        <v>2189.98</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1745.030000</v>
+        <v>-1745.03</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>70762.531556</v>
+        <v>70762.531556000002</v>
       </c>
       <c r="B8" s="1">
-        <v>19.656259</v>
+        <v>19.656258999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>1149.440000</v>
+        <v>1149.44</v>
       </c>
       <c r="D8" s="1">
-        <v>-251.141000</v>
+        <v>-251.14099999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>70772.865734</v>
+        <v>70772.865734000006</v>
       </c>
       <c r="G8" s="1">
         <v>19.659129</v>
       </c>
       <c r="H8" s="1">
-        <v>1170.210000</v>
+        <v>1170.21</v>
       </c>
       <c r="I8" s="1">
-        <v>-211.822000</v>
+        <v>-211.822</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>70783.357081</v>
+        <v>70783.357080999995</v>
       </c>
       <c r="L8" s="1">
-        <v>19.662044</v>
+        <v>19.662044000000002</v>
       </c>
       <c r="M8" s="1">
-        <v>1196.930000</v>
+        <v>1196.93</v>
       </c>
       <c r="N8" s="1">
-        <v>-148.210000</v>
+        <v>-148.21</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>70793.562763</v>
+        <v>70793.562762999994</v>
       </c>
       <c r="Q8" s="1">
-        <v>19.664879</v>
+        <v>19.664878999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>1205.030000</v>
+        <v>1205.03</v>
       </c>
       <c r="S8" s="1">
-        <v>-126.897000</v>
+        <v>-126.89700000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>70804.101757</v>
+        <v>70804.101756999997</v>
       </c>
       <c r="V8" s="1">
-        <v>19.667806</v>
+        <v>19.667805999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>1212.520000</v>
+        <v>1212.52</v>
       </c>
       <c r="X8" s="1">
-        <v>-107.104000</v>
+        <v>-107.104</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>70814.722592</v>
+        <v>70814.722592000006</v>
       </c>
       <c r="AA8" s="1">
-        <v>19.670756</v>
+        <v>19.670756000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1220.490000</v>
+        <v>1220.49</v>
       </c>
       <c r="AC8" s="1">
-        <v>-90.602800</v>
+        <v>-90.602800000000002</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>70825.252659</v>
+        <v>70825.252659000005</v>
       </c>
       <c r="AF8" s="1">
-        <v>19.673681</v>
+        <v>19.673680999999998</v>
       </c>
       <c r="AG8" s="1">
-        <v>1225.410000</v>
+        <v>1225.4100000000001</v>
       </c>
       <c r="AH8" s="1">
-        <v>-86.306700</v>
+        <v>-86.306700000000006</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>70835.444452</v>
+        <v>70835.444451999996</v>
       </c>
       <c r="AK8" s="1">
-        <v>19.676512</v>
+        <v>19.676511999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1232.690000</v>
+        <v>1232.69</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.761700</v>
+        <v>-89.761700000000005</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>70846.155592</v>
+        <v>70846.155591999996</v>
       </c>
       <c r="AP8" s="1">
-        <v>19.679488</v>
+        <v>19.679487999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1240.800000</v>
+        <v>1240.8</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.719000</v>
+        <v>-101.71899999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>70857.498568</v>
+        <v>70857.498567999995</v>
       </c>
       <c r="AU8" s="1">
-        <v>19.682638</v>
+        <v>19.682638000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1250.830000</v>
+        <v>1250.83</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.123000</v>
+        <v>-121.123</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>70868.621352</v>
+        <v>70868.621352000002</v>
       </c>
       <c r="AZ8" s="1">
-        <v>19.685728</v>
+        <v>19.685728000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1259.330000</v>
+        <v>1259.33</v>
       </c>
       <c r="BB8" s="1">
-        <v>-138.652000</v>
+        <v>-138.65199999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>70879.560121</v>
+        <v>70879.560121000002</v>
       </c>
       <c r="BE8" s="1">
-        <v>19.688767</v>
+        <v>19.688766999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1299.730000</v>
+        <v>1299.73</v>
       </c>
       <c r="BG8" s="1">
-        <v>-220.922000</v>
+        <v>-220.922</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>70891.184396</v>
+        <v>70891.184395999997</v>
       </c>
       <c r="BJ8" s="1">
         <v>19.691996</v>
       </c>
       <c r="BK8" s="1">
-        <v>1370.300000</v>
+        <v>1370.3</v>
       </c>
       <c r="BL8" s="1">
-        <v>-357.627000</v>
+        <v>-357.62700000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>70902.814059</v>
+        <v>70902.814058999997</v>
       </c>
       <c r="BO8" s="1">
-        <v>19.695226</v>
+        <v>19.695226000000002</v>
       </c>
       <c r="BP8" s="1">
-        <v>1486.390000</v>
+        <v>1486.39</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-578.887000</v>
+        <v>-578.88699999999994</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>70913.274684</v>
+        <v>70913.274684000004</v>
       </c>
       <c r="BT8" s="1">
-        <v>19.698132</v>
+        <v>19.698132000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1620.450000</v>
+        <v>1620.45</v>
       </c>
       <c r="BV8" s="1">
-        <v>-827.540000</v>
+        <v>-827.54</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>70924.124176</v>
+        <v>70924.124175999998</v>
       </c>
       <c r="BY8" s="1">
-        <v>19.701146</v>
+        <v>19.701146000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1773.490000</v>
+        <v>1773.49</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1096.240000</v>
+        <v>-1096.24</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>70935.737503</v>
+        <v>70935.737502999997</v>
       </c>
       <c r="CD8" s="1">
-        <v>19.704372</v>
+        <v>19.704371999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>2191.760000</v>
+        <v>2191.7600000000002</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1747.340000</v>
+        <v>-1747.34</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>70762.870857</v>
+        <v>70762.870857000002</v>
       </c>
       <c r="B9" s="1">
-        <v>19.656353</v>
+        <v>19.656352999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1149.340000</v>
+        <v>1149.3399999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-251.219000</v>
+        <v>-251.21899999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>70773.210423</v>
+        <v>70773.210422999997</v>
       </c>
       <c r="G9" s="1">
-        <v>19.659225</v>
+        <v>19.659224999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1170.080000</v>
+        <v>1170.08</v>
       </c>
       <c r="I9" s="1">
-        <v>-211.007000</v>
+        <v>-211.00700000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>70783.703289</v>
+        <v>70783.703288999997</v>
       </c>
       <c r="L9" s="1">
-        <v>19.662140</v>
+        <v>19.662140000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>1196.760000</v>
+        <v>1196.76</v>
       </c>
       <c r="N9" s="1">
-        <v>-148.203000</v>
+        <v>-148.203</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>70794.239804</v>
+        <v>70794.239803999997</v>
       </c>
       <c r="Q9" s="1">
-        <v>19.665067</v>
+        <v>19.665067000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>1204.990000</v>
+        <v>1204.99</v>
       </c>
       <c r="S9" s="1">
-        <v>-127.067000</v>
+        <v>-127.06699999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>70804.763452</v>
+        <v>70804.763451999999</v>
       </c>
       <c r="V9" s="1">
-        <v>19.667990</v>
+        <v>19.66799</v>
       </c>
       <c r="W9" s="1">
-        <v>1212.590000</v>
+        <v>1212.5899999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-107.032000</v>
+        <v>-107.032</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>70815.106494</v>
+        <v>70815.106494000007</v>
       </c>
       <c r="AA9" s="1">
-        <v>19.670863</v>
+        <v>19.670863000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>1220.430000</v>
+        <v>1220.43</v>
       </c>
       <c r="AC9" s="1">
-        <v>-90.551100</v>
+        <v>-90.551100000000005</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>70825.631601</v>
+        <v>70825.631601000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>19.673787</v>
+        <v>19.673787000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>1225.370000</v>
+        <v>1225.3699999999999</v>
       </c>
       <c r="AH9" s="1">
-        <v>-86.203900</v>
+        <v>-86.203900000000004</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>70835.794628</v>
+        <v>70835.794628000003</v>
       </c>
       <c r="AK9" s="1">
-        <v>19.676610</v>
+        <v>19.67661</v>
       </c>
       <c r="AL9" s="1">
-        <v>1232.700000</v>
+        <v>1232.7</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.741300</v>
+        <v>-89.741299999999995</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>70846.517178</v>
+        <v>70846.517177999995</v>
       </c>
       <c r="AP9" s="1">
-        <v>19.679588</v>
+        <v>19.679587999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1240.780000</v>
+        <v>1240.78</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.736000</v>
+        <v>-101.736</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>70857.863158</v>
+        <v>70857.863157999993</v>
       </c>
       <c r="AU9" s="1">
-        <v>19.682740</v>
+        <v>19.682739999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1250.850000</v>
+        <v>1250.8499999999999</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.123000</v>
+        <v>-121.123</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>70869.048408</v>
+        <v>70869.048408000002</v>
       </c>
       <c r="AZ9" s="1">
-        <v>19.685847</v>
+        <v>19.685846999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1259.320000</v>
+        <v>1259.32</v>
       </c>
       <c r="BB9" s="1">
-        <v>-138.693000</v>
+        <v>-138.69300000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>70879.979769</v>
+        <v>70879.979768999998</v>
       </c>
       <c r="BE9" s="1">
-        <v>19.688883</v>
+        <v>19.688883000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1299.730000</v>
+        <v>1299.73</v>
       </c>
       <c r="BG9" s="1">
-        <v>-220.923000</v>
+        <v>-220.923</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>70891.512219</v>
+        <v>70891.512218999997</v>
       </c>
       <c r="BJ9" s="1">
-        <v>19.692087</v>
+        <v>19.692087000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1370.320000</v>
+        <v>1370.32</v>
       </c>
       <c r="BL9" s="1">
-        <v>-357.600000</v>
+        <v>-357.6</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>70903.231691</v>
+        <v>70903.231690999994</v>
       </c>
       <c r="BO9" s="1">
         <v>19.695342</v>
       </c>
       <c r="BP9" s="1">
-        <v>1486.430000</v>
+        <v>1486.43</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-578.826000</v>
+        <v>-578.82600000000002</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>70913.686364</v>
+        <v>70913.686363999994</v>
       </c>
       <c r="BT9" s="1">
-        <v>19.698246</v>
+        <v>19.698246000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1620.480000</v>
+        <v>1620.48</v>
       </c>
       <c r="BV9" s="1">
-        <v>-827.456000</v>
+        <v>-827.45600000000002</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>70924.579502</v>
+        <v>70924.579501999993</v>
       </c>
       <c r="BY9" s="1">
-        <v>19.701272</v>
+        <v>19.701271999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1773.240000</v>
+        <v>1773.24</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1096.420000</v>
+        <v>-1096.42</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>70936.277647</v>
+        <v>70936.277646999995</v>
       </c>
       <c r="CD9" s="1">
-        <v>19.704522</v>
+        <v>19.704522000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>2191.140000</v>
+        <v>2191.14</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1745.000000</v>
+        <v>-1745</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>70763.215576</v>
+        <v>70763.215576000002</v>
       </c>
       <c r="B10" s="1">
-        <v>19.656449</v>
+        <v>19.656448999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>1149.350000</v>
+        <v>1149.3499999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-250.962000</v>
+        <v>-250.96199999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>70773.556630</v>
+        <v>70773.556630000006</v>
       </c>
       <c r="G10" s="1">
-        <v>19.659321</v>
+        <v>19.659320999999998</v>
       </c>
       <c r="H10" s="1">
-        <v>1169.550000</v>
+        <v>1169.55</v>
       </c>
       <c r="I10" s="1">
-        <v>-211.054000</v>
+        <v>-211.054</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>70784.353543</v>
+        <v>70784.353543000005</v>
       </c>
       <c r="L10" s="1">
-        <v>19.662320</v>
+        <v>19.662320000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1197.000000</v>
+        <v>1197</v>
       </c>
       <c r="N10" s="1">
-        <v>-148.233000</v>
+        <v>-148.233</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>70794.614779</v>
+        <v>70794.614778999996</v>
       </c>
       <c r="Q10" s="1">
-        <v>19.665171</v>
+        <v>19.665171000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1204.910000</v>
+        <v>1204.9100000000001</v>
       </c>
       <c r="S10" s="1">
-        <v>-127.013000</v>
+        <v>-127.01300000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>70805.131948</v>
+        <v>70805.131947999995</v>
       </c>
       <c r="V10" s="1">
-        <v>19.668092</v>
+        <v>19.668092000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>1212.490000</v>
+        <v>1212.49</v>
       </c>
       <c r="X10" s="1">
-        <v>-106.873000</v>
+        <v>-106.873</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>70815.456702</v>
+        <v>70815.456701999996</v>
       </c>
       <c r="AA10" s="1">
-        <v>19.670960</v>
+        <v>19.670960000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1220.390000</v>
+        <v>1220.3900000000001</v>
       </c>
       <c r="AC10" s="1">
-        <v>-90.522600</v>
+        <v>-90.522599999999997</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>70825.975328</v>
       </c>
       <c r="AF10" s="1">
-        <v>19.673882</v>
+        <v>19.673881999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1225.300000</v>
+        <v>1225.3</v>
       </c>
       <c r="AH10" s="1">
-        <v>-86.296400</v>
+        <v>-86.296400000000006</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>70836.142819</v>
+        <v>70836.142819000001</v>
       </c>
       <c r="AK10" s="1">
-        <v>19.676706</v>
+        <v>19.676705999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>1232.700000</v>
+        <v>1232.7</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.755900</v>
+        <v>-89.755899999999997</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>70846.923397</v>
+        <v>70846.923397000006</v>
       </c>
       <c r="AP10" s="1">
-        <v>19.679701</v>
+        <v>19.679701000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1240.770000</v>
+        <v>1240.77</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.738000</v>
+        <v>-101.738</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>70858.286213</v>
+        <v>70858.286212999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>19.682857</v>
+        <v>19.682856999999998</v>
       </c>
       <c r="AV10" s="1">
-        <v>1250.860000</v>
+        <v>1250.8599999999999</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.124000</v>
+        <v>-121.124</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>70869.339559</v>
       </c>
       <c r="AZ10" s="1">
-        <v>19.685928</v>
+        <v>19.685928000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1259.300000</v>
+        <v>1259.3</v>
       </c>
       <c r="BB10" s="1">
-        <v>-138.638000</v>
+        <v>-138.63800000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>70880.281306</v>
+        <v>70880.281306000004</v>
       </c>
       <c r="BE10" s="1">
-        <v>19.688967</v>
+        <v>19.688967000000002</v>
       </c>
       <c r="BF10" s="1">
-        <v>1299.720000</v>
+        <v>1299.72</v>
       </c>
       <c r="BG10" s="1">
-        <v>-220.909000</v>
+        <v>-220.90899999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>70891.887689</v>
+        <v>70891.887688999996</v>
       </c>
       <c r="BJ10" s="1">
-        <v>19.692191</v>
+        <v>19.692191000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1370.320000</v>
+        <v>1370.32</v>
       </c>
       <c r="BL10" s="1">
-        <v>-357.599000</v>
+        <v>-357.59899999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>70903.625051</v>
+        <v>70903.625050999995</v>
       </c>
       <c r="BO10" s="1">
-        <v>19.695451</v>
+        <v>19.695450999999998</v>
       </c>
       <c r="BP10" s="1">
-        <v>1486.340000</v>
+        <v>1486.34</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-578.872000</v>
+        <v>-578.87199999999996</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>70914.118380</v>
+        <v>70914.11838</v>
       </c>
       <c r="BT10" s="1">
         <v>19.698366</v>
       </c>
       <c r="BU10" s="1">
-        <v>1620.430000</v>
+        <v>1620.43</v>
       </c>
       <c r="BV10" s="1">
-        <v>-827.364000</v>
+        <v>-827.36400000000003</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>70925.028382</v>
+        <v>70925.028382000004</v>
       </c>
       <c r="BY10" s="1">
         <v>19.701397</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1773.330000</v>
+        <v>1773.33</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1096.480000</v>
+        <v>-1096.48</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>70936.815345</v>
+        <v>70936.815344999995</v>
       </c>
       <c r="CD10" s="1">
-        <v>19.704671</v>
+        <v>19.704671000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>2190.100000</v>
+        <v>2190.1</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1747.010000</v>
+        <v>-1747.01</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>70763.867282</v>
+        <v>70763.867282000007</v>
       </c>
       <c r="B11" s="1">
-        <v>19.656630</v>
+        <v>19.65663</v>
       </c>
       <c r="C11" s="1">
-        <v>1149.320000</v>
+        <v>1149.32</v>
       </c>
       <c r="D11" s="1">
-        <v>-251.204000</v>
+        <v>-251.20400000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>70774.211846</v>
+        <v>70774.211846000006</v>
       </c>
       <c r="G11" s="1">
-        <v>19.659503</v>
+        <v>19.659503000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>1170.240000</v>
+        <v>1170.24</v>
       </c>
       <c r="I11" s="1">
-        <v>-210.076000</v>
+        <v>-210.07599999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>70784.739959</v>
+        <v>70784.739958999999</v>
       </c>
       <c r="L11" s="1">
-        <v>19.662428</v>
+        <v>19.662427999999998</v>
       </c>
       <c r="M11" s="1">
-        <v>1197.090000</v>
+        <v>1197.0899999999999</v>
       </c>
       <c r="N11" s="1">
-        <v>-148.055000</v>
+        <v>-148.05500000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>70794.965482</v>
       </c>
       <c r="Q11" s="1">
-        <v>19.665268</v>
+        <v>19.665268000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>1204.900000</v>
+        <v>1204.9000000000001</v>
       </c>
       <c r="S11" s="1">
-        <v>-127.000000</v>
+        <v>-127</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>70805.476185</v>
+        <v>70805.476185000007</v>
       </c>
       <c r="V11" s="1">
-        <v>19.668188</v>
+        <v>19.668188000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>1212.420000</v>
+        <v>1212.42</v>
       </c>
       <c r="X11" s="1">
-        <v>-106.918000</v>
+        <v>-106.91800000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>70815.804863</v>
+        <v>70815.804862999998</v>
       </c>
       <c r="AA11" s="1">
-        <v>19.671057</v>
+        <v>19.671057000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>1220.350000</v>
+        <v>1220.3499999999999</v>
       </c>
       <c r="AC11" s="1">
-        <v>-90.565100</v>
+        <v>-90.565100000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>70826.318065</v>
+        <v>70826.318064999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>19.673977</v>
+        <v>19.673977000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1225.310000</v>
+        <v>1225.31</v>
       </c>
       <c r="AH11" s="1">
-        <v>-86.203200</v>
+        <v>-86.203199999999995</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>70836.565412</v>
+        <v>70836.565411999996</v>
       </c>
       <c r="AK11" s="1">
         <v>19.676824</v>
       </c>
       <c r="AL11" s="1">
-        <v>1232.700000</v>
+        <v>1232.7</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.730600</v>
+        <v>-89.730599999999995</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>70847.605897</v>
+        <v>70847.605897000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>19.679891</v>
+        <v>19.679891000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1240.770000</v>
+        <v>1240.77</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.749000</v>
+        <v>-101.749</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>70858.591253</v>
+        <v>70858.591253000006</v>
       </c>
       <c r="AU11" s="1">
-        <v>19.682942</v>
+        <v>19.682942000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>1250.860000</v>
+        <v>1250.8599999999999</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.125000</v>
+        <v>-121.125</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>70869.697176</v>
+        <v>70869.697176000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>19.686027</v>
+        <v>19.686026999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1259.340000</v>
+        <v>1259.3399999999999</v>
       </c>
       <c r="BB11" s="1">
-        <v>-138.673000</v>
+        <v>-138.673</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>70880.642888</v>
+        <v>70880.642888000002</v>
       </c>
       <c r="BE11" s="1">
-        <v>19.689067</v>
+        <v>19.689067000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1299.730000</v>
+        <v>1299.73</v>
       </c>
       <c r="BG11" s="1">
-        <v>-220.940000</v>
+        <v>-220.94</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>70892.274569</v>
+        <v>70892.274569000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>19.692298</v>
+        <v>19.692298000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1370.340000</v>
+        <v>1370.34</v>
       </c>
       <c r="BL11" s="1">
-        <v>-357.552000</v>
+        <v>-357.55200000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>70904.047114</v>
+        <v>70904.047114000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>19.695569</v>
+        <v>19.695568999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1486.390000</v>
+        <v>1486.39</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-578.874000</v>
+        <v>-578.87400000000002</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>70914.545968</v>
+        <v>70914.545968000006</v>
       </c>
       <c r="BT11" s="1">
-        <v>19.698485</v>
+        <v>19.698485000000002</v>
       </c>
       <c r="BU11" s="1">
-        <v>1620.510000</v>
+        <v>1620.51</v>
       </c>
       <c r="BV11" s="1">
-        <v>-827.262000</v>
+        <v>-827.26199999999994</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>70925.450513</v>
+        <v>70925.450513000003</v>
       </c>
       <c r="BY11" s="1">
         <v>19.701514</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1773.390000</v>
+        <v>1773.39</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1096.460000</v>
+        <v>-1096.46</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>70937.355453</v>
+        <v>70937.355452999996</v>
       </c>
       <c r="CD11" s="1">
-        <v>19.704821</v>
+        <v>19.704820999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>2192.240000</v>
+        <v>2192.2399999999998</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1745.730000</v>
+        <v>-1745.73</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>70764.241266</v>
+        <v>70764.241265999997</v>
       </c>
       <c r="B12" s="1">
         <v>19.656734</v>
       </c>
       <c r="C12" s="1">
-        <v>1149.460000</v>
+        <v>1149.46</v>
       </c>
       <c r="D12" s="1">
-        <v>-251.094000</v>
+        <v>-251.09399999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>70774.591780</v>
+        <v>70774.591780000002</v>
       </c>
       <c r="G12" s="1">
         <v>19.659609</v>
       </c>
       <c r="H12" s="1">
-        <v>1170.340000</v>
+        <v>1170.3399999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-211.432000</v>
+        <v>-211.43199999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>70785.084179</v>
+        <v>70785.084178999998</v>
       </c>
       <c r="L12" s="1">
         <v>19.662523</v>
       </c>
       <c r="M12" s="1">
-        <v>1196.880000</v>
+        <v>1196.8800000000001</v>
       </c>
       <c r="N12" s="1">
-        <v>-148.275000</v>
+        <v>-148.27500000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>70795.312650</v>
+        <v>70795.312650000007</v>
       </c>
       <c r="Q12" s="1">
-        <v>19.665365</v>
+        <v>19.665365000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>1204.890000</v>
+        <v>1204.8900000000001</v>
       </c>
       <c r="S12" s="1">
-        <v>-127.000000</v>
+        <v>-127</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>70805.820706</v>
+        <v>70805.820705999999</v>
       </c>
       <c r="V12" s="1">
         <v>19.668284</v>
       </c>
       <c r="W12" s="1">
-        <v>1212.500000</v>
+        <v>1212.5</v>
       </c>
       <c r="X12" s="1">
-        <v>-107.014000</v>
+        <v>-107.014</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>70816.225008</v>
+        <v>70816.225007999994</v>
       </c>
       <c r="AA12" s="1">
-        <v>19.671174</v>
+        <v>19.671174000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>1220.490000</v>
+        <v>1220.49</v>
       </c>
       <c r="AC12" s="1">
-        <v>-90.502200</v>
+        <v>-90.502200000000002</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>70826.742143</v>
+        <v>70826.742142999996</v>
       </c>
       <c r="AF12" s="1">
-        <v>19.674095</v>
+        <v>19.674095000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>1225.270000</v>
+        <v>1225.27</v>
       </c>
       <c r="AH12" s="1">
-        <v>-86.331400</v>
+        <v>-86.331400000000002</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>70836.851318</v>
+        <v>70836.851318000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>19.676903</v>
+        <v>19.676902999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1232.700000</v>
+        <v>1232.7</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.763800</v>
+        <v>-89.763800000000003</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>70847.982350</v>
+        <v>70847.982350000006</v>
       </c>
       <c r="AP12" s="1">
-        <v>19.679995</v>
+        <v>19.679995000000002</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1240.770000</v>
+        <v>1240.77</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.734000</v>
+        <v>-101.73399999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>70858.955317</v>
       </c>
       <c r="AU12" s="1">
-        <v>19.683043</v>
+        <v>19.683043000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>1250.840000</v>
+        <v>1250.8399999999999</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.142000</v>
+        <v>-121.142</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>70870.056806</v>
+        <v>70870.056805999993</v>
       </c>
       <c r="AZ12" s="1">
-        <v>19.686127</v>
+        <v>19.686126999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1259.340000</v>
+        <v>1259.3399999999999</v>
       </c>
       <c r="BB12" s="1">
-        <v>-138.661000</v>
+        <v>-138.661</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>70881.003479</v>
+        <v>70881.003479000006</v>
       </c>
       <c r="BE12" s="1">
-        <v>19.689168</v>
+        <v>19.689167999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1299.800000</v>
+        <v>1299.8</v>
       </c>
       <c r="BG12" s="1">
-        <v>-220.932000</v>
+        <v>-220.93199999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>70893.037416</v>
+        <v>70893.037416000006</v>
       </c>
       <c r="BJ12" s="1">
-        <v>19.692510</v>
+        <v>19.692509999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1370.320000</v>
+        <v>1370.32</v>
       </c>
       <c r="BL12" s="1">
-        <v>-357.604000</v>
+        <v>-357.60399999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>70904.443949</v>
+        <v>70904.443948999993</v>
       </c>
       <c r="BO12" s="1">
-        <v>19.695679</v>
+        <v>19.695678999999998</v>
       </c>
       <c r="BP12" s="1">
-        <v>1486.380000</v>
+        <v>1486.38</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-578.835000</v>
+        <v>-578.83500000000004</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>70914.958107</v>
+        <v>70914.958106999999</v>
       </c>
       <c r="BT12" s="1">
-        <v>19.698599</v>
+        <v>19.698599000000002</v>
       </c>
       <c r="BU12" s="1">
-        <v>1620.510000</v>
+        <v>1620.51</v>
       </c>
       <c r="BV12" s="1">
-        <v>-827.231000</v>
+        <v>-827.23099999999999</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>70925.867614</v>
+        <v>70925.867614000003</v>
       </c>
       <c r="BY12" s="1">
-        <v>19.701630</v>
+        <v>19.701630000000002</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1773.330000</v>
+        <v>1773.33</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1096.350000</v>
+        <v>-1096.3499999999999</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>70937.894120</v>
+        <v>70937.894119999997</v>
       </c>
       <c r="CD12" s="1">
         <v>19.704971</v>
       </c>
       <c r="CE12" s="1">
-        <v>2189.650000</v>
+        <v>2189.65</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1745.650000</v>
+        <v>-1745.65</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>70764.800754</v>
+        <v>70764.800753999996</v>
       </c>
       <c r="B13" s="1">
         <v>19.656889</v>
       </c>
       <c r="C13" s="1">
-        <v>1149.460000</v>
+        <v>1149.46</v>
       </c>
       <c r="D13" s="1">
-        <v>-250.924000</v>
+        <v>-250.92400000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>70774.937032</v>
+        <v>70774.937032000002</v>
       </c>
       <c r="G13" s="1">
-        <v>19.659705</v>
+        <v>19.659704999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>1169.770000</v>
+        <v>1169.77</v>
       </c>
       <c r="I13" s="1">
-        <v>-210.956000</v>
+        <v>-210.95599999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>70785.430358</v>
+        <v>70785.430357999998</v>
       </c>
       <c r="L13" s="1">
-        <v>19.662620</v>
+        <v>19.66262</v>
       </c>
       <c r="M13" s="1">
-        <v>1197.080000</v>
+        <v>1197.08</v>
       </c>
       <c r="N13" s="1">
-        <v>-148.463000</v>
+        <v>-148.46299999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>70795.733790</v>
+        <v>70795.733789999998</v>
       </c>
       <c r="Q13" s="1">
-        <v>19.665482</v>
+        <v>19.665482000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>1204.930000</v>
+        <v>1204.93</v>
       </c>
       <c r="S13" s="1">
-        <v>-126.989000</v>
+        <v>-126.989</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>70806.237252</v>
+        <v>70806.237252000006</v>
       </c>
       <c r="V13" s="1">
-        <v>19.668399</v>
+        <v>19.668399000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>1212.440000</v>
+        <v>1212.44</v>
       </c>
       <c r="X13" s="1">
-        <v>-107.021000</v>
+        <v>-107.021</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>70816.503012</v>
+        <v>70816.503012000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>19.671251</v>
+        <v>19.671251000000002</v>
       </c>
       <c r="AB13" s="1">
-        <v>1220.380000</v>
+        <v>1220.3800000000001</v>
       </c>
       <c r="AC13" s="1">
-        <v>-90.527400</v>
+        <v>-90.5274</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>70827.007007</v>
+        <v>70827.007006999993</v>
       </c>
       <c r="AF13" s="1">
-        <v>19.674169</v>
+        <v>19.674168999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>1225.370000</v>
+        <v>1225.3699999999999</v>
       </c>
       <c r="AH13" s="1">
-        <v>-86.269900</v>
+        <v>-86.269900000000007</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>70837.202274</v>
+        <v>70837.202273999996</v>
       </c>
       <c r="AK13" s="1">
-        <v>19.677001</v>
+        <v>19.677001000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>1232.730000</v>
+        <v>1232.73</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.746800</v>
+        <v>-89.746799999999993</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>70848.341923</v>
       </c>
       <c r="AP13" s="1">
-        <v>19.680095</v>
+        <v>19.680095000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1240.780000</v>
+        <v>1240.78</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.735000</v>
+        <v>-101.735</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>70859.320869</v>
+        <v>70859.320869000003</v>
       </c>
       <c r="AU13" s="1">
         <v>19.683145</v>
       </c>
       <c r="AV13" s="1">
-        <v>1250.850000</v>
+        <v>1250.8499999999999</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.111000</v>
+        <v>-121.111</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>70870.774485</v>
+        <v>70870.774485000002</v>
       </c>
       <c r="AZ13" s="1">
-        <v>19.686326</v>
+        <v>19.686326000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1259.330000</v>
+        <v>1259.33</v>
       </c>
       <c r="BB13" s="1">
-        <v>-138.674000</v>
+        <v>-138.67400000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>70881.724168</v>
+        <v>70881.724168000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>19.689368</v>
+        <v>19.689368000000002</v>
       </c>
       <c r="BF13" s="1">
-        <v>1299.780000</v>
+        <v>1299.78</v>
       </c>
       <c r="BG13" s="1">
-        <v>-220.985000</v>
+        <v>-220.98500000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>70893.413383</v>
+        <v>70893.413383000006</v>
       </c>
       <c r="BJ13" s="1">
         <v>19.692615</v>
       </c>
       <c r="BK13" s="1">
-        <v>1370.310000</v>
+        <v>1370.31</v>
       </c>
       <c r="BL13" s="1">
-        <v>-357.596000</v>
+        <v>-357.596</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>70904.865048</v>
+        <v>70904.865048000007</v>
       </c>
       <c r="BO13" s="1">
-        <v>19.695796</v>
+        <v>19.695796000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1486.390000</v>
+        <v>1486.39</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-578.845000</v>
+        <v>-578.84500000000003</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>70915.387678</v>
+        <v>70915.387677999999</v>
       </c>
       <c r="BT13" s="1">
-        <v>19.698719</v>
+        <v>19.698719000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1620.530000</v>
+        <v>1620.53</v>
       </c>
       <c r="BV13" s="1">
-        <v>-827.086000</v>
+        <v>-827.08600000000001</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>70926.616572</v>
+        <v>70926.616571999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>19.701838</v>
+        <v>19.701837999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1773.280000</v>
+        <v>1773.28</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1096.270000</v>
+        <v>-1096.27</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>70938.433259</v>
+        <v>70938.433258999998</v>
       </c>
       <c r="CD13" s="1">
-        <v>19.705120</v>
+        <v>19.705120000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>2192.200000</v>
+        <v>2192.1999999999998</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1747.000000</v>
+        <v>-1747</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>70765.148980</v>
+        <v>70765.148979999998</v>
       </c>
       <c r="B14" s="1">
         <v>19.656986</v>
       </c>
       <c r="C14" s="1">
-        <v>1149.230000</v>
+        <v>1149.23</v>
       </c>
       <c r="D14" s="1">
-        <v>-250.999000</v>
+        <v>-250.999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>70775.346691</v>
+        <v>70775.346690999999</v>
       </c>
       <c r="G14" s="1">
-        <v>19.659819</v>
+        <v>19.659818999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1169.960000</v>
+        <v>1169.96</v>
       </c>
       <c r="I14" s="1">
-        <v>-211.312000</v>
+        <v>-211.31200000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>70785.846998</v>
+        <v>70785.846997999994</v>
       </c>
       <c r="L14" s="1">
-        <v>19.662735</v>
+        <v>19.662735000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>1197.080000</v>
+        <v>1197.08</v>
       </c>
       <c r="N14" s="1">
-        <v>-148.009000</v>
+        <v>-148.00899999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>70796.022425</v>
+        <v>70796.022425000003</v>
       </c>
       <c r="Q14" s="1">
-        <v>19.665562</v>
+        <v>19.665562000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>1204.960000</v>
+        <v>1204.96</v>
       </c>
       <c r="S14" s="1">
-        <v>-126.983000</v>
+        <v>-126.983</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>70806.534636</v>
+        <v>70806.534635999997</v>
       </c>
       <c r="V14" s="1">
-        <v>19.668482</v>
+        <v>19.668482000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1212.570000</v>
+        <v>1212.57</v>
       </c>
       <c r="X14" s="1">
-        <v>-106.878000</v>
+        <v>-106.878</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>70816.849934</v>
+        <v>70816.849933999998</v>
       </c>
       <c r="AA14" s="1">
-        <v>19.671347</v>
+        <v>19.671347000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>1220.340000</v>
+        <v>1220.3399999999999</v>
       </c>
       <c r="AC14" s="1">
-        <v>-90.514600</v>
+        <v>-90.514600000000002</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>70827.356687</v>
+        <v>70827.356687000007</v>
       </c>
       <c r="AF14" s="1">
-        <v>19.674266</v>
+        <v>19.674265999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>1225.390000</v>
+        <v>1225.3900000000001</v>
       </c>
       <c r="AH14" s="1">
-        <v>-86.281100</v>
+        <v>-86.281099999999995</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>70837.550478</v>
+        <v>70837.550478000005</v>
       </c>
       <c r="AK14" s="1">
         <v>19.677097</v>
       </c>
       <c r="AL14" s="1">
-        <v>1232.690000</v>
+        <v>1232.69</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.758200</v>
+        <v>-89.758200000000002</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>70849.064127</v>
+        <v>70849.064127000005</v>
       </c>
       <c r="AP14" s="1">
-        <v>19.680296</v>
+        <v>19.680295999999998</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1240.790000</v>
+        <v>1240.79</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.725000</v>
+        <v>-101.72499999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>70860.052478</v>
+        <v>70860.052477999998</v>
       </c>
       <c r="AU14" s="1">
-        <v>19.683348</v>
+        <v>19.683347999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>1250.810000</v>
+        <v>1250.81</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.124000</v>
+        <v>-121.124</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>70871.131497</v>
+        <v>70871.131496999995</v>
       </c>
       <c r="AZ14" s="1">
         <v>19.686425</v>
       </c>
       <c r="BA14" s="1">
-        <v>1259.330000</v>
+        <v>1259.33</v>
       </c>
       <c r="BB14" s="1">
-        <v>-138.626000</v>
+        <v>-138.626</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>70882.112566</v>
+        <v>70882.112565999996</v>
       </c>
       <c r="BE14" s="1">
-        <v>19.689476</v>
+        <v>19.689475999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1299.810000</v>
+        <v>1299.81</v>
       </c>
       <c r="BG14" s="1">
-        <v>-220.950000</v>
+        <v>-220.95</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>70893.789351</v>
+        <v>70893.789350999999</v>
       </c>
       <c r="BJ14" s="1">
         <v>19.692719</v>
       </c>
       <c r="BK14" s="1">
-        <v>1370.310000</v>
+        <v>1370.31</v>
       </c>
       <c r="BL14" s="1">
-        <v>-357.588000</v>
+        <v>-357.58800000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>70905.569367</v>
+        <v>70905.569367000004</v>
       </c>
       <c r="BO14" s="1">
-        <v>19.695991</v>
+        <v>19.695990999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1486.390000</v>
+        <v>1486.39</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-578.849000</v>
+        <v>-578.84900000000005</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>70916.127673</v>
+        <v>70916.127672999995</v>
       </c>
       <c r="BT14" s="1">
-        <v>19.698924</v>
+        <v>19.698924000000002</v>
       </c>
       <c r="BU14" s="1">
-        <v>1620.350000</v>
+        <v>1620.35</v>
       </c>
       <c r="BV14" s="1">
-        <v>-827.001000</v>
+        <v>-827.00099999999998</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>70926.735115</v>
+        <v>70926.735115000003</v>
       </c>
       <c r="BY14" s="1">
-        <v>19.701871</v>
+        <v>19.701871000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1773.240000</v>
+        <v>1773.24</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1096.410000</v>
+        <v>-1096.4100000000001</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>70938.972951</v>
+        <v>70938.972951000003</v>
       </c>
       <c r="CD14" s="1">
-        <v>19.705270</v>
+        <v>19.705269999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>2190.980000</v>
+        <v>2190.98</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1745.010000</v>
+        <v>-1745.01</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>70765.564096</v>
+        <v>70765.564096000002</v>
       </c>
       <c r="B15" s="1">
-        <v>19.657101</v>
+        <v>19.657101000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>1149.490000</v>
+        <v>1149.49</v>
       </c>
       <c r="D15" s="1">
-        <v>-251.088000</v>
+        <v>-251.08799999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>70775.983060</v>
+        <v>70775.983059999999</v>
       </c>
       <c r="G15" s="1">
-        <v>19.659995</v>
+        <v>19.659994999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1169.990000</v>
+        <v>1169.99</v>
       </c>
       <c r="I15" s="1">
-        <v>-210.510000</v>
+        <v>-210.51</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>70786.124757</v>
+        <v>70786.124756999998</v>
       </c>
       <c r="L15" s="1">
-        <v>19.662812</v>
+        <v>19.662811999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>1196.980000</v>
+        <v>1196.98</v>
       </c>
       <c r="N15" s="1">
-        <v>-148.153000</v>
+        <v>-148.15299999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>70796.367641</v>
+        <v>70796.367641000004</v>
       </c>
       <c r="Q15" s="1">
-        <v>19.665658</v>
+        <v>19.665658000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>1204.930000</v>
+        <v>1204.93</v>
       </c>
       <c r="S15" s="1">
-        <v>-127.076000</v>
+        <v>-127.07599999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>70806.879355</v>
+        <v>70806.879354999997</v>
       </c>
       <c r="V15" s="1">
         <v>19.668578</v>
       </c>
       <c r="W15" s="1">
-        <v>1212.470000</v>
+        <v>1212.47</v>
       </c>
       <c r="X15" s="1">
-        <v>-106.982000</v>
+        <v>-106.982</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>70817.201101</v>
+        <v>70817.201100999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>19.671445</v>
+        <v>19.671444999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>1220.460000</v>
+        <v>1220.46</v>
       </c>
       <c r="AC15" s="1">
-        <v>-90.546500</v>
+        <v>-90.546499999999995</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>70827.696446</v>
+        <v>70827.696446000002</v>
       </c>
       <c r="AF15" s="1">
-        <v>19.674360</v>
+        <v>19.67436</v>
       </c>
       <c r="AG15" s="1">
-        <v>1225.320000</v>
+        <v>1225.32</v>
       </c>
       <c r="AH15" s="1">
-        <v>-86.393000</v>
+        <v>-86.393000000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>70838.246352</v>
+        <v>70838.246352000002</v>
       </c>
       <c r="AK15" s="1">
         <v>19.677291</v>
       </c>
       <c r="AL15" s="1">
-        <v>1232.700000</v>
+        <v>1232.7</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.747700</v>
+        <v>-89.747699999999995</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>70849.422705</v>
+        <v>70849.422705000004</v>
       </c>
       <c r="AP15" s="1">
-        <v>19.680395</v>
+        <v>19.680395000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1240.790000</v>
+        <v>1240.79</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.742000</v>
+        <v>-101.742</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>70860.443315</v>
+        <v>70860.443314999997</v>
       </c>
       <c r="AU15" s="1">
         <v>19.683456</v>
       </c>
       <c r="AV15" s="1">
-        <v>1250.820000</v>
+        <v>1250.82</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.100000</v>
+        <v>-121.1</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>70871.492198</v>
+        <v>70871.492198000007</v>
       </c>
       <c r="AZ15" s="1">
-        <v>19.686526</v>
+        <v>19.686526000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1259.300000</v>
+        <v>1259.3</v>
       </c>
       <c r="BB15" s="1">
-        <v>-138.644000</v>
+        <v>-138.64400000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>70882.471639</v>
+        <v>70882.471638999996</v>
       </c>
       <c r="BE15" s="1">
-        <v>19.689575</v>
+        <v>19.689575000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1299.840000</v>
+        <v>1299.8399999999999</v>
       </c>
       <c r="BG15" s="1">
-        <v>-220.972000</v>
+        <v>-220.97200000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>70894.493174</v>
+        <v>70894.493174000003</v>
       </c>
       <c r="BJ15" s="1">
-        <v>19.692915</v>
+        <v>19.692914999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1370.270000</v>
+        <v>1370.27</v>
       </c>
       <c r="BL15" s="1">
-        <v>-357.576000</v>
+        <v>-357.57600000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>70905.679447</v>
+        <v>70905.679447000002</v>
       </c>
       <c r="BO15" s="1">
-        <v>19.696022</v>
+        <v>19.696021999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1486.350000</v>
+        <v>1486.35</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-578.829000</v>
+        <v>-578.82899999999995</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>70916.258651</v>
+        <v>70916.258650999996</v>
       </c>
       <c r="BT15" s="1">
-        <v>19.698961</v>
+        <v>19.698961000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1620.330000</v>
+        <v>1620.33</v>
       </c>
       <c r="BV15" s="1">
-        <v>-826.910000</v>
+        <v>-826.91</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>70927.147787</v>
+        <v>70927.147786999994</v>
       </c>
       <c r="BY15" s="1">
-        <v>19.701985</v>
+        <v>19.701985000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1773.420000</v>
+        <v>1773.42</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1096.370000</v>
+        <v>-1096.3699999999999</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>70939.514539</v>
+        <v>70939.514538999996</v>
       </c>
       <c r="CD15" s="1">
-        <v>19.705421</v>
+        <v>19.705421000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>2190.400000</v>
+        <v>2190.4</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1746.990000</v>
+        <v>-1746.99</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>70765.851281</v>
+        <v>70765.851280999996</v>
       </c>
       <c r="B16" s="1">
-        <v>19.657181</v>
+        <v>19.657181000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>1149.350000</v>
+        <v>1149.3499999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-250.951000</v>
+        <v>-250.95099999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>70776.328770</v>
+        <v>70776.328769999993</v>
       </c>
       <c r="G16" s="1">
-        <v>19.660091</v>
+        <v>19.660091000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1170.270000</v>
+        <v>1170.27</v>
       </c>
       <c r="I16" s="1">
-        <v>-210.651000</v>
+        <v>-210.65100000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>70786.471460</v>
+        <v>70786.471460000001</v>
       </c>
       <c r="L16" s="1">
-        <v>19.662909</v>
+        <v>19.662908999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1197.090000</v>
+        <v>1197.0899999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-148.081000</v>
+        <v>-148.08099999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>70796.719800</v>
+        <v>70796.719800000006</v>
       </c>
       <c r="Q16" s="1">
-        <v>19.665755</v>
+        <v>19.665755000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>1204.830000</v>
+        <v>1204.83</v>
       </c>
       <c r="S16" s="1">
-        <v>-127.074000</v>
+        <v>-127.074</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>70807.221595</v>
+        <v>70807.221594999995</v>
       </c>
       <c r="V16" s="1">
-        <v>19.668673</v>
+        <v>19.668672999999998</v>
       </c>
       <c r="W16" s="1">
-        <v>1212.680000</v>
+        <v>1212.68</v>
       </c>
       <c r="X16" s="1">
-        <v>-107.026000</v>
+        <v>-107.026</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>70817.898509</v>
+        <v>70817.898509000006</v>
       </c>
       <c r="AA16" s="1">
-        <v>19.671638</v>
+        <v>19.671638000000002</v>
       </c>
       <c r="AB16" s="1">
-        <v>1220.470000</v>
+        <v>1220.47</v>
       </c>
       <c r="AC16" s="1">
-        <v>-90.576100</v>
+        <v>-90.576099999999997</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>70828.382450</v>
+        <v>70828.382450000005</v>
       </c>
       <c r="AF16" s="1">
-        <v>19.674551</v>
+        <v>19.674551000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>1225.310000</v>
+        <v>1225.31</v>
       </c>
       <c r="AH16" s="1">
-        <v>-86.158900</v>
+        <v>-86.158900000000003</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>70838.597025</v>
+        <v>70838.597024999995</v>
       </c>
       <c r="AK16" s="1">
-        <v>19.677388</v>
+        <v>19.677388000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>1232.700000</v>
+        <v>1232.7</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.747500</v>
+        <v>-89.747500000000002</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>70849.783666</v>
+        <v>70849.783666000003</v>
       </c>
       <c r="AP16" s="1">
-        <v>19.680495</v>
+        <v>19.680495000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1240.770000</v>
+        <v>1240.77</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.723000</v>
+        <v>-101.723</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>70860.808866</v>
+        <v>70860.808866000007</v>
       </c>
       <c r="AU16" s="1">
-        <v>19.683558</v>
+        <v>19.683558000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>1250.820000</v>
+        <v>1250.82</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.116000</v>
+        <v>-121.116</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>70872.164773</v>
+        <v>70872.164772999997</v>
       </c>
       <c r="AZ16" s="1">
         <v>19.686712</v>
       </c>
       <c r="BA16" s="1">
-        <v>1259.320000</v>
+        <v>1259.32</v>
       </c>
       <c r="BB16" s="1">
-        <v>-138.664000</v>
+        <v>-138.66399999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>70883.154169</v>
+        <v>70883.154169000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>19.689765</v>
+        <v>19.689765000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1299.780000</v>
+        <v>1299.78</v>
       </c>
       <c r="BG16" s="1">
-        <v>-220.969000</v>
+        <v>-220.96899999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>70894.938614</v>
+        <v>70894.938613999999</v>
       </c>
       <c r="BJ16" s="1">
-        <v>19.693039</v>
+        <v>19.693038999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1370.310000</v>
+        <v>1370.31</v>
       </c>
       <c r="BL16" s="1">
-        <v>-357.605000</v>
+        <v>-357.60500000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>70906.106998</v>
+        <v>70906.106998000003</v>
       </c>
       <c r="BO16" s="1">
-        <v>19.696141</v>
+        <v>19.696141000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1486.340000</v>
+        <v>1486.34</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-578.852000</v>
+        <v>-578.85199999999998</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>70916.672814</v>
+        <v>70916.672814000005</v>
       </c>
       <c r="BT16" s="1">
-        <v>19.699076</v>
+        <v>19.699076000000002</v>
       </c>
       <c r="BU16" s="1">
-        <v>1620.250000</v>
+        <v>1620.25</v>
       </c>
       <c r="BV16" s="1">
-        <v>-826.921000</v>
+        <v>-826.92100000000005</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>70927.605595</v>
+        <v>70927.605595000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>19.702113</v>
+        <v>19.702113000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1773.280000</v>
+        <v>1773.28</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1096.300000</v>
+        <v>-1096.3</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>70940.054713</v>
+        <v>70940.054713000005</v>
       </c>
       <c r="CD16" s="1">
-        <v>19.705571</v>
+        <v>19.705570999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>2192.200000</v>
+        <v>2192.1999999999998</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1745.600000</v>
+        <v>-1745.6</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>70766.196000</v>
+        <v>70766.195999999996</v>
       </c>
       <c r="B17" s="1">
-        <v>19.657277</v>
+        <v>19.657277000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1149.360000</v>
+        <v>1149.3599999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-251.194000</v>
+        <v>-251.19399999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>70776.673985</v>
+        <v>70776.673985000001</v>
       </c>
       <c r="G17" s="1">
-        <v>19.660187</v>
+        <v>19.660187000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>1170.450000</v>
+        <v>1170.45</v>
       </c>
       <c r="I17" s="1">
-        <v>-210.886000</v>
+        <v>-210.886</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>70786.815188</v>
+        <v>70786.815187999993</v>
       </c>
       <c r="L17" s="1">
-        <v>19.663004</v>
+        <v>19.663004000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>1197.060000</v>
+        <v>1197.06</v>
       </c>
       <c r="N17" s="1">
-        <v>-148.428000</v>
+        <v>-148.428</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>70797.415190</v>
+        <v>70797.41519</v>
       </c>
       <c r="Q17" s="1">
-        <v>19.665949</v>
+        <v>19.665949000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>1204.860000</v>
+        <v>1204.8599999999999</v>
       </c>
       <c r="S17" s="1">
-        <v>-126.967000</v>
+        <v>-126.967</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>70807.907097</v>
+        <v>70807.907097000003</v>
       </c>
       <c r="V17" s="1">
-        <v>19.668863</v>
+        <v>19.668863000000002</v>
       </c>
       <c r="W17" s="1">
-        <v>1212.500000</v>
+        <v>1212.5</v>
       </c>
       <c r="X17" s="1">
-        <v>-106.915000</v>
+        <v>-106.91500000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>70818.247162</v>
       </c>
       <c r="AA17" s="1">
-        <v>19.671735</v>
+        <v>19.671735000000002</v>
       </c>
       <c r="AB17" s="1">
-        <v>1220.420000</v>
+        <v>1220.42</v>
       </c>
       <c r="AC17" s="1">
-        <v>-90.539500</v>
+        <v>-90.539500000000004</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>70828.797597</v>
+        <v>70828.797596999997</v>
       </c>
       <c r="AF17" s="1">
-        <v>19.674666</v>
+        <v>19.674665999999998</v>
       </c>
       <c r="AG17" s="1">
-        <v>1225.180000</v>
+        <v>1225.18</v>
       </c>
       <c r="AH17" s="1">
-        <v>-86.489800</v>
+        <v>-86.489800000000002</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>70838.944255</v>
+        <v>70838.944254999995</v>
       </c>
       <c r="AK17" s="1">
-        <v>19.677485</v>
+        <v>19.677485000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>1232.710000</v>
+        <v>1232.71</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.765900</v>
+        <v>-89.765900000000002</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>70850.467777</v>
+        <v>70850.467776999998</v>
       </c>
       <c r="AP17" s="1">
         <v>19.680685</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1240.780000</v>
+        <v>1240.78</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.741000</v>
+        <v>-101.741</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>70861.486952</v>
+        <v>70861.486952000007</v>
       </c>
       <c r="AU17" s="1">
-        <v>19.683746</v>
+        <v>19.683745999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1250.850000</v>
+        <v>1250.8499999999999</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.116000</v>
+        <v>-121.116</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>70872.567065</v>
+        <v>70872.567064999996</v>
       </c>
       <c r="AZ17" s="1">
-        <v>19.686824</v>
+        <v>19.686824000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1259.320000</v>
+        <v>1259.32</v>
       </c>
       <c r="BB17" s="1">
-        <v>-138.667000</v>
+        <v>-138.667</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>70883.616405</v>
+        <v>70883.616404999993</v>
       </c>
       <c r="BE17" s="1">
-        <v>19.689893</v>
+        <v>19.689893000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1299.840000</v>
+        <v>1299.8399999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-220.958000</v>
+        <v>-220.958</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>70895.342358</v>
+        <v>70895.342357999994</v>
       </c>
       <c r="BJ17" s="1">
         <v>19.693151</v>
       </c>
       <c r="BK17" s="1">
-        <v>1370.320000</v>
+        <v>1370.32</v>
       </c>
       <c r="BL17" s="1">
-        <v>-357.575000</v>
+        <v>-357.57499999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>70906.502344</v>
+        <v>70906.502343999993</v>
       </c>
       <c r="BO17" s="1">
         <v>19.696251</v>
       </c>
       <c r="BP17" s="1">
-        <v>1486.400000</v>
+        <v>1486.4</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-578.856000</v>
+        <v>-578.85599999999999</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>70917.100328</v>
@@ -4546,437 +4962,437 @@
         <v>19.699195</v>
       </c>
       <c r="BU17" s="1">
-        <v>1620.190000</v>
+        <v>1620.19</v>
       </c>
       <c r="BV17" s="1">
-        <v>-826.867000</v>
+        <v>-826.86699999999996</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>70928.055993</v>
+        <v>70928.055993000002</v>
       </c>
       <c r="BY17" s="1">
-        <v>19.702238</v>
+        <v>19.702238000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1773.310000</v>
+        <v>1773.31</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1096.430000</v>
+        <v>-1096.43</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>70940.595321</v>
+        <v>70940.595321000001</v>
       </c>
       <c r="CD17" s="1">
         <v>19.705721</v>
       </c>
       <c r="CE17" s="1">
-        <v>2189.630000</v>
+        <v>2189.63</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1745.790000</v>
+        <v>-1745.79</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>70766.536751</v>
+        <v>70766.536751000007</v>
       </c>
       <c r="B18" s="1">
-        <v>19.657371</v>
+        <v>19.657371000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>1149.450000</v>
+        <v>1149.45</v>
       </c>
       <c r="D18" s="1">
-        <v>-251.260000</v>
+        <v>-251.26</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>70777.361482</v>
+        <v>70777.361481999993</v>
       </c>
       <c r="G18" s="1">
-        <v>19.660378</v>
+        <v>19.660378000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>1169.720000</v>
+        <v>1169.72</v>
       </c>
       <c r="I18" s="1">
-        <v>-211.767000</v>
+        <v>-211.767</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>70787.505731</v>
+        <v>70787.505730999997</v>
       </c>
       <c r="L18" s="1">
-        <v>19.663196</v>
+        <v>19.663195999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1196.880000</v>
+        <v>1196.8800000000001</v>
       </c>
       <c r="N18" s="1">
-        <v>-148.150000</v>
+        <v>-148.15</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>70797.766886</v>
+        <v>70797.766885999998</v>
       </c>
       <c r="Q18" s="1">
-        <v>19.666046</v>
+        <v>19.666046000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1204.910000</v>
+        <v>1204.9100000000001</v>
       </c>
       <c r="S18" s="1">
-        <v>-126.956000</v>
+        <v>-126.956</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>70808.251320</v>
+        <v>70808.251319999996</v>
       </c>
       <c r="V18" s="1">
-        <v>19.668959</v>
+        <v>19.668959000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1212.620000</v>
+        <v>1212.6199999999999</v>
       </c>
       <c r="X18" s="1">
-        <v>-107.111000</v>
+        <v>-107.111</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>70818.595389</v>
+        <v>70818.595388999995</v>
       </c>
       <c r="AA18" s="1">
-        <v>19.671832</v>
+        <v>19.671831999999998</v>
       </c>
       <c r="AB18" s="1">
-        <v>1220.510000</v>
+        <v>1220.51</v>
       </c>
       <c r="AC18" s="1">
-        <v>-90.508100</v>
+        <v>-90.508099999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>70829.085253</v>
+        <v>70829.085252999997</v>
       </c>
       <c r="AF18" s="1">
-        <v>19.674746</v>
+        <v>19.674745999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>1225.340000</v>
+        <v>1225.3399999999999</v>
       </c>
       <c r="AH18" s="1">
-        <v>-86.291100</v>
+        <v>-86.2911</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>70839.600926</v>
+        <v>70839.600925999999</v>
       </c>
       <c r="AK18" s="1">
         <v>19.677667</v>
       </c>
       <c r="AL18" s="1">
-        <v>1232.710000</v>
+        <v>1232.71</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.749100</v>
+        <v>-89.749099999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>70850.891855</v>
+        <v>70850.891854999994</v>
       </c>
       <c r="AP18" s="1">
-        <v>19.680803</v>
+        <v>19.680803000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1240.780000</v>
+        <v>1240.78</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.731000</v>
+        <v>-101.73099999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>70861.902544</v>
+        <v>70861.902543999997</v>
       </c>
       <c r="AU18" s="1">
-        <v>19.683862</v>
+        <v>19.683862000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>1250.860000</v>
+        <v>1250.8599999999999</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.156000</v>
+        <v>-121.15600000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>70872.956883</v>
+        <v>70872.956883000006</v>
       </c>
       <c r="AZ18" s="1">
-        <v>19.686932</v>
+        <v>19.686931999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1259.370000</v>
+        <v>1259.3699999999999</v>
       </c>
       <c r="BB18" s="1">
-        <v>-138.649000</v>
+        <v>-138.649</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>70883.966581</v>
+        <v>70883.966581000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>19.689991</v>
+        <v>19.689990999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1299.810000</v>
+        <v>1299.81</v>
       </c>
       <c r="BG18" s="1">
-        <v>-220.966000</v>
+        <v>-220.96600000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>70895.715814</v>
+        <v>70895.715813999996</v>
       </c>
       <c r="BJ18" s="1">
         <v>19.693254</v>
       </c>
       <c r="BK18" s="1">
-        <v>1370.330000</v>
+        <v>1370.33</v>
       </c>
       <c r="BL18" s="1">
-        <v>-357.594000</v>
+        <v>-357.59399999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>70906.924902</v>
+        <v>70906.924901999999</v>
       </c>
       <c r="BO18" s="1">
         <v>19.696368</v>
       </c>
       <c r="BP18" s="1">
-        <v>1486.360000</v>
+        <v>1486.36</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-578.870000</v>
+        <v>-578.87</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>70917.513501</v>
+        <v>70917.513500999994</v>
       </c>
       <c r="BT18" s="1">
         <v>19.699309</v>
       </c>
       <c r="BU18" s="1">
-        <v>1620.070000</v>
+        <v>1620.07</v>
       </c>
       <c r="BV18" s="1">
-        <v>-826.832000</v>
+        <v>-826.83199999999999</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>70928.476336</v>
+        <v>70928.476336000007</v>
       </c>
       <c r="BY18" s="1">
-        <v>19.702355</v>
+        <v>19.702355000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1773.230000</v>
+        <v>1773.23</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1096.430000</v>
+        <v>-1096.43</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>70941.132490</v>
+        <v>70941.132490000004</v>
       </c>
       <c r="CD18" s="1">
-        <v>19.705870</v>
+        <v>19.705870000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>2192.400000</v>
+        <v>2192.4</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1746.640000</v>
+        <v>-1746.64</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>70767.219247</v>
+        <v>70767.219247000001</v>
       </c>
       <c r="B19" s="1">
-        <v>19.657561</v>
+        <v>19.657561000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1149.510000</v>
+        <v>1149.51</v>
       </c>
       <c r="D19" s="1">
-        <v>-251.022000</v>
+        <v>-251.02199999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>70777.708146</v>
+        <v>70777.708146000004</v>
       </c>
       <c r="G19" s="1">
-        <v>19.660474</v>
+        <v>19.660474000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1169.870000</v>
+        <v>1169.8699999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>-211.021000</v>
+        <v>-211.02099999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>70787.851827</v>
+        <v>70787.851827000006</v>
       </c>
       <c r="L19" s="1">
-        <v>19.663292</v>
+        <v>19.663291999999998</v>
       </c>
       <c r="M19" s="1">
-        <v>1197.000000</v>
+        <v>1197</v>
       </c>
       <c r="N19" s="1">
-        <v>-148.221000</v>
+        <v>-148.221</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>70798.114551</v>
+        <v>70798.114551000006</v>
       </c>
       <c r="Q19" s="1">
-        <v>19.666143</v>
+        <v>19.666143000000002</v>
       </c>
       <c r="R19" s="1">
-        <v>1205.000000</v>
+        <v>1205</v>
       </c>
       <c r="S19" s="1">
-        <v>-126.985000</v>
+        <v>-126.985</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>70808.595015</v>
+        <v>70808.595014999999</v>
       </c>
       <c r="V19" s="1">
-        <v>19.669054</v>
+        <v>19.669053999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>1212.510000</v>
+        <v>1212.51</v>
       </c>
       <c r="X19" s="1">
-        <v>-106.821000</v>
+        <v>-106.821</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>70819.247593</v>
+        <v>70819.247592999993</v>
       </c>
       <c r="AA19" s="1">
         <v>19.672013</v>
       </c>
       <c r="AB19" s="1">
-        <v>1220.440000</v>
+        <v>1220.44</v>
       </c>
       <c r="AC19" s="1">
-        <v>-90.475100</v>
+        <v>-90.475099999999998</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>70829.518501</v>
+        <v>70829.518500999999</v>
       </c>
       <c r="AF19" s="1">
-        <v>19.674866</v>
+        <v>19.674866000000002</v>
       </c>
       <c r="AG19" s="1">
-        <v>1225.360000</v>
+        <v>1225.3599999999999</v>
       </c>
       <c r="AH19" s="1">
-        <v>-86.275600</v>
+        <v>-86.275599999999997</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>70839.988798</v>
+        <v>70839.988798000006</v>
       </c>
       <c r="AK19" s="1">
         <v>19.677775</v>
       </c>
       <c r="AL19" s="1">
-        <v>1232.720000</v>
+        <v>1232.72</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.758200</v>
+        <v>-89.758200000000002</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>70851.252460</v>
+        <v>70851.252460000003</v>
       </c>
       <c r="AP19" s="1">
-        <v>19.680903</v>
+        <v>19.680903000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1240.780000</v>
+        <v>1240.78</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.732000</v>
+        <v>-101.732</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>70862.295908</v>
@@ -4985,43 +5401,43 @@
         <v>19.683971</v>
       </c>
       <c r="AV19" s="1">
-        <v>1250.850000</v>
+        <v>1250.8499999999999</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.143000</v>
+        <v>-121.143</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>70873.315522</v>
+        <v>70873.315522000004</v>
       </c>
       <c r="AZ19" s="1">
-        <v>19.687032</v>
+        <v>19.687031999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1259.350000</v>
+        <v>1259.3499999999999</v>
       </c>
       <c r="BB19" s="1">
-        <v>-138.663000</v>
+        <v>-138.66300000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>70884.327668</v>
+        <v>70884.327667999998</v>
       </c>
       <c r="BE19" s="1">
-        <v>19.690091</v>
+        <v>19.690090999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1299.810000</v>
+        <v>1299.81</v>
       </c>
       <c r="BG19" s="1">
-        <v>-220.953000</v>
+        <v>-220.953</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>70896.140388</v>
@@ -5030,1178 +5446,1178 @@
         <v>19.693372</v>
       </c>
       <c r="BK19" s="1">
-        <v>1370.320000</v>
+        <v>1370.32</v>
       </c>
       <c r="BL19" s="1">
-        <v>-357.598000</v>
+        <v>-357.59800000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>70907.321218</v>
+        <v>70907.321217999997</v>
       </c>
       <c r="BO19" s="1">
-        <v>19.696478</v>
+        <v>19.696477999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1486.420000</v>
+        <v>1486.42</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-578.822000</v>
+        <v>-578.822</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>70917.929174</v>
+        <v>70917.929174000004</v>
       </c>
       <c r="BT19" s="1">
-        <v>19.699425</v>
+        <v>19.699425000000002</v>
       </c>
       <c r="BU19" s="1">
-        <v>1619.980000</v>
+        <v>1619.98</v>
       </c>
       <c r="BV19" s="1">
-        <v>-826.832000</v>
+        <v>-826.83199999999999</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>70928.896682</v>
+        <v>70928.896682000006</v>
       </c>
       <c r="BY19" s="1">
-        <v>19.702471</v>
+        <v>19.702470999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1773.360000</v>
+        <v>1773.36</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1096.330000</v>
+        <v>-1096.33</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>70941.674121</v>
+        <v>70941.674121000004</v>
       </c>
       <c r="CD19" s="1">
         <v>19.706021</v>
       </c>
       <c r="CE19" s="1">
-        <v>2190.720000</v>
+        <v>2190.7199999999998</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1744.970000</v>
+        <v>-1744.97</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>70767.564463</v>
+        <v>70767.564463000002</v>
       </c>
       <c r="B20" s="1">
         <v>19.657657</v>
       </c>
       <c r="C20" s="1">
-        <v>1149.500000</v>
+        <v>1149.5</v>
       </c>
       <c r="D20" s="1">
-        <v>-251.130000</v>
+        <v>-251.13</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>70778.051416</v>
+        <v>70778.051416000002</v>
       </c>
       <c r="G20" s="1">
-        <v>19.660570</v>
+        <v>19.66057</v>
       </c>
       <c r="H20" s="1">
-        <v>1170.200000</v>
+        <v>1170.2</v>
       </c>
       <c r="I20" s="1">
-        <v>-212.059000</v>
+        <v>-212.059</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>70788.200514</v>
+        <v>70788.200513999996</v>
       </c>
       <c r="L20" s="1">
-        <v>19.663389</v>
+        <v>19.663388999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>1197.010000</v>
+        <v>1197.01</v>
       </c>
       <c r="N20" s="1">
-        <v>-148.333000</v>
+        <v>-148.333</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>70798.774229</v>
+        <v>70798.774229000002</v>
       </c>
       <c r="Q20" s="1">
-        <v>19.666326</v>
+        <v>19.666326000000002</v>
       </c>
       <c r="R20" s="1">
-        <v>1204.920000</v>
+        <v>1204.92</v>
       </c>
       <c r="S20" s="1">
-        <v>-127.070000</v>
+        <v>-127.07</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>70809.249238</v>
+        <v>70809.249238000004</v>
       </c>
       <c r="V20" s="1">
-        <v>19.669236</v>
+        <v>19.669236000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>1212.530000</v>
+        <v>1212.53</v>
       </c>
       <c r="X20" s="1">
-        <v>-107.114000</v>
+        <v>-107.114</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>70819.641944</v>
+        <v>70819.641944000003</v>
       </c>
       <c r="AA20" s="1">
-        <v>19.672123</v>
+        <v>19.672122999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>1220.330000</v>
+        <v>1220.33</v>
       </c>
       <c r="AC20" s="1">
-        <v>-90.578000</v>
+        <v>-90.578000000000003</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>70829.786124</v>
+        <v>70829.786124000006</v>
       </c>
       <c r="AF20" s="1">
         <v>19.674941</v>
       </c>
       <c r="AG20" s="1">
-        <v>1225.130000</v>
+        <v>1225.1300000000001</v>
       </c>
       <c r="AH20" s="1">
-        <v>-86.282800</v>
+        <v>-86.282799999999995</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>70840.337517</v>
+        <v>70840.337517000007</v>
       </c>
       <c r="AK20" s="1">
-        <v>19.677872</v>
+        <v>19.677872000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>1232.710000</v>
+        <v>1232.71</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.739500</v>
+        <v>-89.739500000000007</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>70851.612575</v>
+        <v>70851.612575000006</v>
       </c>
       <c r="AP20" s="1">
         <v>19.681003</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1240.790000</v>
+        <v>1240.79</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.756000</v>
+        <v>-101.756</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>70862.663904</v>
+        <v>70862.663904000001</v>
       </c>
       <c r="AU20" s="1">
-        <v>19.684073</v>
+        <v>19.684073000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1250.840000</v>
+        <v>1250.8399999999999</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.127000</v>
+        <v>-121.127</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>70873.734648</v>
+        <v>70873.734647999998</v>
       </c>
       <c r="AZ20" s="1">
-        <v>19.687149</v>
+        <v>19.687149000000002</v>
       </c>
       <c r="BA20" s="1">
-        <v>1259.350000</v>
+        <v>1259.3499999999999</v>
       </c>
       <c r="BB20" s="1">
-        <v>-138.663000</v>
+        <v>-138.66300000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>70885.073683</v>
+        <v>70885.073682999995</v>
       </c>
       <c r="BE20" s="1">
-        <v>19.690298</v>
+        <v>19.690297999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1299.820000</v>
+        <v>1299.82</v>
       </c>
       <c r="BG20" s="1">
-        <v>-220.962000</v>
+        <v>-220.96199999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>70896.493076</v>
+        <v>70896.493075999999</v>
       </c>
       <c r="BJ20" s="1">
-        <v>19.693470</v>
+        <v>19.693470000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1370.320000</v>
+        <v>1370.32</v>
       </c>
       <c r="BL20" s="1">
-        <v>-357.595000</v>
+        <v>-357.59500000000003</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>70907.740820</v>
+        <v>70907.740820000006</v>
       </c>
       <c r="BO20" s="1">
-        <v>19.696595</v>
+        <v>19.696594999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1486.440000</v>
+        <v>1486.44</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-578.887000</v>
+        <v>-578.88699999999994</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>70918.343992</v>
+        <v>70918.343991999995</v>
       </c>
       <c r="BT20" s="1">
-        <v>19.699540</v>
+        <v>19.699539999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1619.890000</v>
+        <v>1619.89</v>
       </c>
       <c r="BV20" s="1">
-        <v>-826.880000</v>
+        <v>-826.88</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>70929.324233</v>
+        <v>70929.324233000007</v>
       </c>
       <c r="BY20" s="1">
-        <v>19.702590</v>
+        <v>19.702590000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1773.390000</v>
+        <v>1773.39</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1096.270000</v>
+        <v>-1096.27</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>70942.215255</v>
+        <v>70942.215255000003</v>
       </c>
       <c r="CD20" s="1">
-        <v>19.706171</v>
+        <v>19.706171000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>2190.830000</v>
+        <v>2190.83</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1747.240000</v>
+        <v>-1747.24</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>70767.904749</v>
+        <v>70767.904748999994</v>
       </c>
       <c r="B21" s="1">
-        <v>19.657751</v>
+        <v>19.657751000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>1149.120000</v>
+        <v>1149.1199999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-251.037000</v>
+        <v>-251.03700000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>70778.709072</v>
+        <v>70778.709071999998</v>
       </c>
       <c r="G21" s="1">
         <v>19.660753</v>
       </c>
       <c r="H21" s="1">
-        <v>1169.460000</v>
+        <v>1169.46</v>
       </c>
       <c r="I21" s="1">
-        <v>-211.528000</v>
+        <v>-211.52799999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>70788.865649</v>
+        <v>70788.865648999999</v>
       </c>
       <c r="L21" s="1">
-        <v>19.663574</v>
+        <v>19.663574000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>1196.940000</v>
+        <v>1196.94</v>
       </c>
       <c r="N21" s="1">
-        <v>-148.233000</v>
+        <v>-148.233</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>70799.161109</v>
+        <v>70799.161108999993</v>
       </c>
       <c r="Q21" s="1">
-        <v>19.666434</v>
+        <v>19.666433999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1204.900000</v>
+        <v>1204.9000000000001</v>
       </c>
       <c r="S21" s="1">
-        <v>-127.056000</v>
+        <v>-127.056</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>70809.626198</v>
+        <v>70809.626197999998</v>
       </c>
       <c r="V21" s="1">
-        <v>19.669341</v>
+        <v>19.669340999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1212.530000</v>
+        <v>1212.53</v>
       </c>
       <c r="X21" s="1">
-        <v>-106.872000</v>
+        <v>-106.872</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>70819.989608</v>
+        <v>70819.989608000003</v>
       </c>
       <c r="AA21" s="1">
-        <v>19.672219</v>
+        <v>19.672218999999998</v>
       </c>
       <c r="AB21" s="1">
-        <v>1220.410000</v>
+        <v>1220.4100000000001</v>
       </c>
       <c r="AC21" s="1">
-        <v>-90.526600</v>
+        <v>-90.526600000000002</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>70830.131306</v>
+        <v>70830.131305999996</v>
       </c>
       <c r="AF21" s="1">
-        <v>19.675036</v>
+        <v>19.675035999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>1225.350000</v>
+        <v>1225.3499999999999</v>
       </c>
       <c r="AH21" s="1">
-        <v>-86.175400</v>
+        <v>-86.175399999999996</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>70840.689646</v>
+        <v>70840.689645999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>19.677969</v>
+        <v>19.677969000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>1232.690000</v>
+        <v>1232.69</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.779600</v>
+        <v>-89.779600000000002</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>70852.039102</v>
+        <v>70852.039101999995</v>
       </c>
       <c r="AP21" s="1">
-        <v>19.681122</v>
+        <v>19.681121999999998</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1240.760000</v>
+        <v>1240.76</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.729000</v>
+        <v>-101.729</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>70863.100880</v>
+        <v>70863.100879999998</v>
       </c>
       <c r="AU21" s="1">
-        <v>19.684195</v>
+        <v>19.684194999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1250.820000</v>
+        <v>1250.82</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.120000</v>
+        <v>-121.12</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>70874.033742</v>
       </c>
       <c r="AZ21" s="1">
-        <v>19.687232</v>
+        <v>19.687232000000002</v>
       </c>
       <c r="BA21" s="1">
-        <v>1259.320000</v>
+        <v>1259.32</v>
       </c>
       <c r="BB21" s="1">
-        <v>-138.638000</v>
+        <v>-138.63800000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>70885.436734</v>
+        <v>70885.436734000003</v>
       </c>
       <c r="BE21" s="1">
-        <v>19.690399</v>
+        <v>19.690398999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1299.780000</v>
+        <v>1299.78</v>
       </c>
       <c r="BG21" s="1">
-        <v>-220.938000</v>
+        <v>-220.93799999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>70896.867523</v>
+        <v>70896.867522999994</v>
       </c>
       <c r="BJ21" s="1">
-        <v>19.693574</v>
+        <v>19.693574000000002</v>
       </c>
       <c r="BK21" s="1">
-        <v>1370.310000</v>
+        <v>1370.31</v>
       </c>
       <c r="BL21" s="1">
-        <v>-357.582000</v>
+        <v>-357.58199999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>70908.140128</v>
+        <v>70908.140127999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>19.696706</v>
+        <v>19.696705999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1486.400000</v>
+        <v>1486.4</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-578.835000</v>
+        <v>-578.83500000000004</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>70918.754486</v>
+        <v>70918.754486000005</v>
       </c>
       <c r="BT21" s="1">
-        <v>19.699654</v>
+        <v>19.699653999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1619.800000</v>
+        <v>1619.8</v>
       </c>
       <c r="BV21" s="1">
-        <v>-826.945000</v>
+        <v>-826.94500000000005</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>70929.742391</v>
+        <v>70929.742391000007</v>
       </c>
       <c r="BY21" s="1">
-        <v>19.702706</v>
+        <v>19.702705999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1773.180000</v>
+        <v>1773.18</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1096.520000</v>
+        <v>-1096.52</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>70942.753910</v>
+        <v>70942.753909999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>19.706321</v>
+        <v>19.706320999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>2192.010000</v>
+        <v>2192.0100000000002</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1745.160000</v>
+        <v>-1745.16</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>70768.552988</v>
+        <v>70768.552987999996</v>
       </c>
       <c r="B22" s="1">
-        <v>19.657931</v>
+        <v>19.657931000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>1149.550000</v>
+        <v>1149.55</v>
       </c>
       <c r="D22" s="1">
-        <v>-251.121000</v>
+        <v>-251.12100000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>70779.085038</v>
+        <v>70779.085038000005</v>
       </c>
       <c r="G22" s="1">
         <v>19.660857</v>
       </c>
       <c r="H22" s="1">
-        <v>1169.990000</v>
+        <v>1169.99</v>
       </c>
       <c r="I22" s="1">
-        <v>-212.124000</v>
+        <v>-212.124</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>70789.235666</v>
+        <v>70789.235665999993</v>
       </c>
       <c r="L22" s="1">
         <v>19.663677</v>
       </c>
       <c r="M22" s="1">
-        <v>1196.960000</v>
+        <v>1196.96</v>
       </c>
       <c r="N22" s="1">
-        <v>-148.126000</v>
+        <v>-148.126</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>70799.507347</v>
+        <v>70799.507347000006</v>
       </c>
       <c r="Q22" s="1">
-        <v>19.666530</v>
+        <v>19.666530000000002</v>
       </c>
       <c r="R22" s="1">
-        <v>1204.920000</v>
+        <v>1204.92</v>
       </c>
       <c r="S22" s="1">
-        <v>-126.979000</v>
+        <v>-126.979</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>70809.970264</v>
+        <v>70809.970264000003</v>
       </c>
       <c r="V22" s="1">
-        <v>19.669436</v>
+        <v>19.669436000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>1212.570000</v>
+        <v>1212.57</v>
       </c>
       <c r="X22" s="1">
-        <v>-107.092000</v>
+        <v>-107.092</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>70820.338791</v>
+        <v>70820.338791000002</v>
       </c>
       <c r="AA22" s="1">
-        <v>19.672316</v>
+        <v>19.672315999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>1220.430000</v>
+        <v>1220.43</v>
       </c>
       <c r="AC22" s="1">
-        <v>-90.558600</v>
+        <v>-90.558599999999998</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>70830.558362</v>
+        <v>70830.558361999996</v>
       </c>
       <c r="AF22" s="1">
         <v>19.675155</v>
       </c>
       <c r="AG22" s="1">
-        <v>1225.320000</v>
+        <v>1225.32</v>
       </c>
       <c r="AH22" s="1">
-        <v>-86.282700</v>
+        <v>-86.282700000000006</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>70841.117429</v>
+        <v>70841.117429000005</v>
       </c>
       <c r="AK22" s="1">
-        <v>19.678088</v>
+        <v>19.678087999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>1232.690000</v>
+        <v>1232.69</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.745200</v>
+        <v>-89.745199999999997</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>70852.333727</v>
+        <v>70852.333727000005</v>
       </c>
       <c r="AP22" s="1">
-        <v>19.681204</v>
+        <v>19.681204000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1240.800000</v>
+        <v>1240.8</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.706000</v>
+        <v>-101.706</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>70863.388594</v>
+        <v>70863.388594000004</v>
       </c>
       <c r="AU22" s="1">
         <v>19.684275</v>
       </c>
       <c r="AV22" s="1">
-        <v>1250.850000</v>
+        <v>1250.8499999999999</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.130000</v>
+        <v>-121.13</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>70874.391841</v>
+        <v>70874.391841000004</v>
       </c>
       <c r="AZ22" s="1">
         <v>19.687331</v>
       </c>
       <c r="BA22" s="1">
-        <v>1259.330000</v>
+        <v>1259.33</v>
       </c>
       <c r="BB22" s="1">
-        <v>-138.664000</v>
+        <v>-138.66399999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>70885.799332</v>
+        <v>70885.799331999995</v>
       </c>
       <c r="BE22" s="1">
-        <v>19.690500</v>
+        <v>19.6905</v>
       </c>
       <c r="BF22" s="1">
-        <v>1299.810000</v>
+        <v>1299.81</v>
       </c>
       <c r="BG22" s="1">
-        <v>-220.953000</v>
+        <v>-220.953</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>70897.242530</v>
+        <v>70897.242530000003</v>
       </c>
       <c r="BJ22" s="1">
-        <v>19.693678</v>
+        <v>19.693677999999998</v>
       </c>
       <c r="BK22" s="1">
-        <v>1370.300000</v>
+        <v>1370.3</v>
       </c>
       <c r="BL22" s="1">
-        <v>-357.594000</v>
+        <v>-357.59399999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>70908.565173</v>
+        <v>70908.565172999995</v>
       </c>
       <c r="BO22" s="1">
-        <v>19.696824</v>
+        <v>19.696823999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1486.320000</v>
+        <v>1486.32</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-578.806000</v>
+        <v>-578.80600000000004</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>70919.172149</v>
+        <v>70919.172149000005</v>
       </c>
       <c r="BT22" s="1">
-        <v>19.699770</v>
+        <v>19.699770000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1619.760000</v>
+        <v>1619.76</v>
       </c>
       <c r="BV22" s="1">
-        <v>-826.913000</v>
+        <v>-826.91300000000001</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>70930.188758</v>
+        <v>70930.188758000004</v>
       </c>
       <c r="BY22" s="1">
-        <v>19.702830</v>
+        <v>19.702829999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1773.330000</v>
+        <v>1773.33</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1096.390000</v>
+        <v>-1096.3900000000001</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>70943.294549</v>
+        <v>70943.294548999998</v>
       </c>
       <c r="CD22" s="1">
-        <v>19.706471</v>
+        <v>19.706471000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>2189.590000</v>
+        <v>2189.59</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1746.340000</v>
+        <v>-1746.34</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>70768.929489</v>
+        <v>70768.929489000002</v>
       </c>
       <c r="B23" s="1">
-        <v>19.658036</v>
+        <v>19.658035999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1149.420000</v>
+        <v>1149.42</v>
       </c>
       <c r="D23" s="1">
-        <v>-250.836000</v>
+        <v>-250.83600000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>70779.430750</v>
+        <v>70779.43075</v>
       </c>
       <c r="G23" s="1">
-        <v>19.660953</v>
+        <v>19.660952999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>1170.580000</v>
+        <v>1170.58</v>
       </c>
       <c r="I23" s="1">
-        <v>-212.121000</v>
+        <v>-212.12100000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>70789.580423</v>
+        <v>70789.580423000007</v>
       </c>
       <c r="L23" s="1">
-        <v>19.663772</v>
+        <v>19.663772000000002</v>
       </c>
       <c r="M23" s="1">
-        <v>1197.110000</v>
+        <v>1197.1099999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-148.320000</v>
+        <v>-148.32</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>70799.859475</v>
+        <v>70799.859475000005</v>
       </c>
       <c r="Q23" s="1">
-        <v>19.666628</v>
+        <v>19.666627999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>1204.920000</v>
+        <v>1204.92</v>
       </c>
       <c r="S23" s="1">
-        <v>-127.021000</v>
+        <v>-127.021</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>70810.311174</v>
+        <v>70810.311174000002</v>
       </c>
       <c r="V23" s="1">
-        <v>19.669531</v>
+        <v>19.669530999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1212.550000</v>
+        <v>1212.55</v>
       </c>
       <c r="X23" s="1">
-        <v>-107.065000</v>
+        <v>-107.065</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>70820.757416</v>
+        <v>70820.757415999993</v>
       </c>
       <c r="AA23" s="1">
-        <v>19.672433</v>
+        <v>19.672433000000002</v>
       </c>
       <c r="AB23" s="1">
-        <v>1220.560000</v>
+        <v>1220.56</v>
       </c>
       <c r="AC23" s="1">
-        <v>-90.560700</v>
+        <v>-90.560699999999997</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>70830.828186</v>
+        <v>70830.828185999999</v>
       </c>
       <c r="AF23" s="1">
-        <v>19.675230</v>
+        <v>19.675229999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>1225.390000</v>
+        <v>1225.3900000000001</v>
       </c>
       <c r="AH23" s="1">
-        <v>-86.055100</v>
+        <v>-86.055099999999996</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>70841.398460</v>
+        <v>70841.398459999997</v>
       </c>
       <c r="AK23" s="1">
-        <v>19.678166</v>
+        <v>19.678166000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1232.710000</v>
+        <v>1232.71</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.778800</v>
+        <v>-89.778800000000004</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>70852.694845</v>
+        <v>70852.694845000005</v>
       </c>
       <c r="AP23" s="1">
-        <v>19.681304</v>
+        <v>19.681304000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1240.770000</v>
+        <v>1240.77</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.741000</v>
+        <v>-101.741</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>70863.755104</v>
+        <v>70863.755103999996</v>
       </c>
       <c r="AU23" s="1">
         <v>19.684376</v>
       </c>
       <c r="AV23" s="1">
-        <v>1250.830000</v>
+        <v>1250.83</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.114000</v>
+        <v>-121.114</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>70874.751409</v>
+        <v>70874.751409000004</v>
       </c>
       <c r="AZ23" s="1">
         <v>19.687431</v>
       </c>
       <c r="BA23" s="1">
-        <v>1259.330000</v>
+        <v>1259.33</v>
       </c>
       <c r="BB23" s="1">
-        <v>-138.661000</v>
+        <v>-138.661</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>70886.520984</v>
+        <v>70886.520984000002</v>
       </c>
       <c r="BE23" s="1">
-        <v>19.690700</v>
+        <v>19.6907</v>
       </c>
       <c r="BF23" s="1">
-        <v>1299.790000</v>
+        <v>1299.79</v>
       </c>
       <c r="BG23" s="1">
-        <v>-220.937000</v>
+        <v>-220.93700000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>70897.990465</v>
+        <v>70897.990464999995</v>
       </c>
       <c r="BJ23" s="1">
-        <v>19.693886</v>
+        <v>19.693885999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1370.320000</v>
+        <v>1370.32</v>
       </c>
       <c r="BL23" s="1">
-        <v>-357.550000</v>
+        <v>-357.55</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>70908.957047</v>
+        <v>70908.957047000004</v>
       </c>
       <c r="BO23" s="1">
-        <v>19.696933</v>
+        <v>19.696933000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1486.390000</v>
+        <v>1486.39</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-578.836000</v>
+        <v>-578.83600000000001</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>70919.612566</v>
+        <v>70919.612565999996</v>
       </c>
       <c r="BT23" s="1">
-        <v>19.699892</v>
+        <v>19.699891999999998</v>
       </c>
       <c r="BU23" s="1">
-        <v>1619.630000</v>
+        <v>1619.63</v>
       </c>
       <c r="BV23" s="1">
-        <v>-826.978000</v>
+        <v>-826.97799999999995</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>70930.610886</v>
+        <v>70930.610885999995</v>
       </c>
       <c r="BY23" s="1">
-        <v>19.702947</v>
+        <v>19.702947000000002</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1773.470000</v>
+        <v>1773.47</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1096.380000</v>
+        <v>-1096.3800000000001</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>70944.143242</v>
+        <v>70944.143242000006</v>
       </c>
       <c r="CD23" s="1">
-        <v>19.706706</v>
+        <v>19.706706000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>2191.170000</v>
+        <v>2191.17</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1744.730000</v>
+        <v>-1744.73</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>70769.273180</v>
+        <v>70769.273180000004</v>
       </c>
       <c r="B24" s="1">
-        <v>19.658131</v>
+        <v>19.658131000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>1149.190000</v>
+        <v>1149.19</v>
       </c>
       <c r="D24" s="1">
-        <v>-250.921000</v>
+        <v>-250.92099999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>70779.773982</v>
+        <v>70779.773981999999</v>
       </c>
       <c r="G24" s="1">
-        <v>19.661048</v>
+        <v>19.661048000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>1170.060000</v>
+        <v>1170.06</v>
       </c>
       <c r="I24" s="1">
-        <v>-211.130000</v>
+        <v>-211.13</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>70789.930096</v>
+        <v>70789.930095999996</v>
       </c>
       <c r="L24" s="1">
-        <v>19.663869</v>
+        <v>19.663868999999998</v>
       </c>
       <c r="M24" s="1">
-        <v>1196.940000</v>
+        <v>1196.94</v>
       </c>
       <c r="N24" s="1">
-        <v>-148.133000</v>
+        <v>-148.13300000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>70800.286034</v>
+        <v>70800.286034000004</v>
       </c>
       <c r="Q24" s="1">
         <v>19.666746</v>
       </c>
       <c r="R24" s="1">
-        <v>1204.910000</v>
+        <v>1204.9100000000001</v>
       </c>
       <c r="S24" s="1">
-        <v>-127.025000</v>
+        <v>-127.02500000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>70810.730292</v>
+        <v>70810.730291999993</v>
       </c>
       <c r="V24" s="1">
-        <v>19.669647</v>
+        <v>19.669647000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1212.580000</v>
+        <v>1212.58</v>
       </c>
       <c r="X24" s="1">
-        <v>-107.055000</v>
+        <v>-107.05500000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>70821.050055</v>
@@ -6210,557 +6626,557 @@
         <v>19.672514</v>
       </c>
       <c r="AB24" s="1">
-        <v>1220.460000</v>
+        <v>1220.46</v>
       </c>
       <c r="AC24" s="1">
-        <v>-90.537300</v>
+        <v>-90.537300000000002</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>70831.170957</v>
+        <v>70831.170956999995</v>
       </c>
       <c r="AF24" s="1">
-        <v>19.675325</v>
+        <v>19.675325000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1225.350000</v>
+        <v>1225.3499999999999</v>
       </c>
       <c r="AH24" s="1">
-        <v>-86.117200</v>
+        <v>-86.117199999999997</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>70841.742193</v>
+        <v>70841.742192999998</v>
       </c>
       <c r="AK24" s="1">
         <v>19.678262</v>
       </c>
       <c r="AL24" s="1">
-        <v>1232.710000</v>
+        <v>1232.71</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.746300</v>
+        <v>-89.746300000000005</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>70853.055437</v>
+        <v>70853.055437000003</v>
       </c>
       <c r="AP24" s="1">
-        <v>19.681404</v>
+        <v>19.681404000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1240.780000</v>
+        <v>1240.78</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.710000</v>
+        <v>-101.71</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>70864.117680</v>
+        <v>70864.117679999996</v>
       </c>
       <c r="AU24" s="1">
-        <v>19.684477</v>
+        <v>19.684477000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1250.830000</v>
+        <v>1250.83</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.129000</v>
+        <v>-121.129</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>70875.473619</v>
+        <v>70875.473618999997</v>
       </c>
       <c r="AZ24" s="1">
-        <v>19.687632</v>
+        <v>19.687632000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1259.340000</v>
+        <v>1259.3399999999999</v>
       </c>
       <c r="BB24" s="1">
-        <v>-138.660000</v>
+        <v>-138.66</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>70886.881568</v>
+        <v>70886.881567999997</v>
       </c>
       <c r="BE24" s="1">
-        <v>19.690800</v>
+        <v>19.690799999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1299.820000</v>
+        <v>1299.82</v>
       </c>
       <c r="BG24" s="1">
-        <v>-220.946000</v>
+        <v>-220.946</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>70898.367921</v>
+        <v>70898.367920999997</v>
       </c>
       <c r="BJ24" s="1">
         <v>19.693991</v>
       </c>
       <c r="BK24" s="1">
-        <v>1370.290000</v>
+        <v>1370.29</v>
       </c>
       <c r="BL24" s="1">
-        <v>-357.604000</v>
+        <v>-357.60399999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>70909.378116</v>
+        <v>70909.378116000007</v>
       </c>
       <c r="BO24" s="1">
         <v>19.697049</v>
       </c>
       <c r="BP24" s="1">
-        <v>1486.360000</v>
+        <v>1486.36</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-578.852000</v>
+        <v>-578.85199999999998</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>70920.035159</v>
+        <v>70920.035159000006</v>
       </c>
       <c r="BT24" s="1">
-        <v>19.700010</v>
+        <v>19.700009999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1619.630000</v>
+        <v>1619.63</v>
       </c>
       <c r="BV24" s="1">
-        <v>-827.077000</v>
+        <v>-827.077</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>70931.349397</v>
+        <v>70931.349396999998</v>
       </c>
       <c r="BY24" s="1">
         <v>19.703153</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1773.420000</v>
+        <v>1773.42</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1096.300000</v>
+        <v>-1096.3</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>70944.372356</v>
+        <v>70944.372356000007</v>
       </c>
       <c r="CD24" s="1">
-        <v>19.706770</v>
+        <v>19.706769999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>2191.340000</v>
+        <v>2191.34</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1744.490000</v>
+        <v>-1744.49</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>70769.615915</v>
+        <v>70769.615915000002</v>
       </c>
       <c r="B25" s="1">
         <v>19.658227</v>
       </c>
       <c r="C25" s="1">
-        <v>1149.430000</v>
+        <v>1149.43</v>
       </c>
       <c r="D25" s="1">
-        <v>-251.252000</v>
+        <v>-251.25200000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>70780.205011</v>
+        <v>70780.205010999998</v>
       </c>
       <c r="G25" s="1">
         <v>19.661168</v>
       </c>
       <c r="H25" s="1">
-        <v>1169.440000</v>
+        <v>1169.44</v>
       </c>
       <c r="I25" s="1">
-        <v>-211.380000</v>
+        <v>-211.38</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>70790.359105</v>
+        <v>70790.359104999996</v>
       </c>
       <c r="L25" s="1">
-        <v>19.663989</v>
+        <v>19.663989000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1197.050000</v>
+        <v>1197.05</v>
       </c>
       <c r="N25" s="1">
-        <v>-148.286000</v>
+        <v>-148.286</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>70800.566770</v>
+        <v>70800.566770000005</v>
       </c>
       <c r="Q25" s="1">
-        <v>19.666824</v>
+        <v>19.666823999999998</v>
       </c>
       <c r="R25" s="1">
-        <v>1205.000000</v>
+        <v>1205</v>
       </c>
       <c r="S25" s="1">
-        <v>-127.047000</v>
+        <v>-127.047</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>70811.021444</v>
+        <v>70811.021443999998</v>
       </c>
       <c r="V25" s="1">
-        <v>19.669728</v>
+        <v>19.669727999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>1212.530000</v>
+        <v>1212.53</v>
       </c>
       <c r="X25" s="1">
-        <v>-106.989000</v>
+        <v>-106.989</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>70821.395766</v>
+        <v>70821.395766000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>19.672610</v>
+        <v>19.672609999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>1220.550000</v>
+        <v>1220.55</v>
       </c>
       <c r="AC25" s="1">
-        <v>-90.547400</v>
+        <v>-90.547399999999996</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>70831.515181</v>
+        <v>70831.515180999995</v>
       </c>
       <c r="AF25" s="1">
         <v>19.675421</v>
       </c>
       <c r="AG25" s="1">
-        <v>1225.300000</v>
+        <v>1225.3</v>
       </c>
       <c r="AH25" s="1">
-        <v>-86.014100</v>
+        <v>-86.014099999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>70842.094812</v>
+        <v>70842.094811999996</v>
       </c>
       <c r="AK25" s="1">
-        <v>19.678360</v>
+        <v>19.678360000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>1232.740000</v>
+        <v>1232.74</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.782700</v>
+        <v>-89.782700000000006</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>70853.773115</v>
+        <v>70853.773115000004</v>
       </c>
       <c r="AP25" s="1">
         <v>19.681604</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1240.790000</v>
+        <v>1240.79</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.744000</v>
+        <v>-101.744</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>70864.851794</v>
+        <v>70864.851794000002</v>
       </c>
       <c r="AU25" s="1">
-        <v>19.684681</v>
+        <v>19.684681000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>1250.840000</v>
+        <v>1250.8399999999999</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.138000</v>
+        <v>-121.13800000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>70875.851070</v>
+        <v>70875.851070000004</v>
       </c>
       <c r="AZ25" s="1">
-        <v>19.687736</v>
+        <v>19.687736000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1259.330000</v>
+        <v>1259.33</v>
       </c>
       <c r="BB25" s="1">
-        <v>-138.671000</v>
+        <v>-138.67099999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>70887.242192</v>
+        <v>70887.242192000005</v>
       </c>
       <c r="BE25" s="1">
         <v>19.690901</v>
       </c>
       <c r="BF25" s="1">
-        <v>1299.830000</v>
+        <v>1299.83</v>
       </c>
       <c r="BG25" s="1">
-        <v>-220.984000</v>
+        <v>-220.98400000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>70898.743888</v>
+        <v>70898.743887999997</v>
       </c>
       <c r="BJ25" s="1">
-        <v>19.694096</v>
+        <v>19.694095999999998</v>
       </c>
       <c r="BK25" s="1">
-        <v>1370.320000</v>
+        <v>1370.32</v>
       </c>
       <c r="BL25" s="1">
-        <v>-357.613000</v>
+        <v>-357.613</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>70910.084950</v>
+        <v>70910.084950000004</v>
       </c>
       <c r="BO25" s="1">
         <v>19.697246</v>
       </c>
       <c r="BP25" s="1">
-        <v>1486.390000</v>
+        <v>1486.39</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-578.870000</v>
+        <v>-578.87</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>70920.491475</v>
+        <v>70920.491475000003</v>
       </c>
       <c r="BT25" s="1">
-        <v>19.700137</v>
+        <v>19.700137000000002</v>
       </c>
       <c r="BU25" s="1">
-        <v>1619.480000</v>
+        <v>1619.48</v>
       </c>
       <c r="BV25" s="1">
-        <v>-827.236000</v>
+        <v>-827.23599999999999</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>70931.513077</v>
+        <v>70931.513076999996</v>
       </c>
       <c r="BY25" s="1">
         <v>19.703198</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1773.280000</v>
+        <v>1773.28</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1096.380000</v>
+        <v>-1096.3800000000001</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>70944.892173</v>
       </c>
       <c r="CD25" s="1">
-        <v>19.706914</v>
+        <v>19.706914000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>2189.940000</v>
+        <v>2189.94</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1745.810000</v>
+        <v>-1745.81</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>70770.037018</v>
+        <v>70770.037018000003</v>
       </c>
       <c r="B26" s="1">
         <v>19.658344</v>
       </c>
       <c r="C26" s="1">
-        <v>1149.550000</v>
+        <v>1149.55</v>
       </c>
       <c r="D26" s="1">
-        <v>-250.965000</v>
+        <v>-250.965</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>70780.485244</v>
+        <v>70780.485243999996</v>
       </c>
       <c r="G26" s="1">
-        <v>19.661246</v>
+        <v>19.661245999999998</v>
       </c>
       <c r="H26" s="1">
-        <v>1170.090000</v>
+        <v>1170.0899999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>-211.657000</v>
+        <v>-211.65700000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>70790.640832</v>
+        <v>70790.640832000005</v>
       </c>
       <c r="L26" s="1">
-        <v>19.664067</v>
+        <v>19.664066999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>1197.250000</v>
+        <v>1197.25</v>
       </c>
       <c r="N26" s="1">
-        <v>-148.119000</v>
+        <v>-148.119</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>70800.913488</v>
+        <v>70800.913488000006</v>
       </c>
       <c r="Q26" s="1">
-        <v>19.666920</v>
+        <v>19.666920000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>1204.930000</v>
+        <v>1204.93</v>
       </c>
       <c r="S26" s="1">
-        <v>-127.096000</v>
+        <v>-127.096</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>70811.366163</v>
+        <v>70811.366162999999</v>
       </c>
       <c r="V26" s="1">
-        <v>19.669824</v>
+        <v>19.669823999999998</v>
       </c>
       <c r="W26" s="1">
-        <v>1212.430000</v>
+        <v>1212.43</v>
       </c>
       <c r="X26" s="1">
-        <v>-106.946000</v>
+        <v>-106.946</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>70821.741014</v>
+        <v>70821.741013999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>19.672706</v>
+        <v>19.672706000000002</v>
       </c>
       <c r="AB26" s="1">
-        <v>1220.520000</v>
+        <v>1220.52</v>
       </c>
       <c r="AC26" s="1">
-        <v>-90.562700</v>
+        <v>-90.562700000000007</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>70832.202601</v>
+        <v>70832.202600999997</v>
       </c>
       <c r="AF26" s="1">
-        <v>19.675612</v>
+        <v>19.675612000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>1225.390000</v>
+        <v>1225.3900000000001</v>
       </c>
       <c r="AH26" s="1">
-        <v>-86.322000</v>
+        <v>-86.322000000000003</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>70842.792186</v>
+        <v>70842.792186000006</v>
       </c>
       <c r="AK26" s="1">
-        <v>19.678553</v>
+        <v>19.678553000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1232.700000</v>
+        <v>1232.7</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.735300</v>
+        <v>-89.735299999999995</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>70854.132715</v>
@@ -6769,135 +7185,136 @@
         <v>19.681704</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1240.770000</v>
+        <v>1240.77</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.718000</v>
+        <v>-101.718</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>70865.232191</v>
+        <v>70865.232191000003</v>
       </c>
       <c r="AU26" s="1">
         <v>19.684787</v>
       </c>
       <c r="AV26" s="1">
-        <v>1250.840000</v>
+        <v>1250.8399999999999</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.125000</v>
+        <v>-121.125</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>70876.225519</v>
       </c>
       <c r="AZ26" s="1">
-        <v>19.687840</v>
+        <v>19.687840000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1259.350000</v>
+        <v>1259.3499999999999</v>
       </c>
       <c r="BB26" s="1">
-        <v>-138.661000</v>
+        <v>-138.661</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>70887.915232</v>
+        <v>70887.915231999999</v>
       </c>
       <c r="BE26" s="1">
-        <v>19.691088</v>
+        <v>19.691088000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1299.820000</v>
+        <v>1299.82</v>
       </c>
       <c r="BG26" s="1">
-        <v>-220.954000</v>
+        <v>-220.95400000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>70899.428377</v>
+        <v>70899.428377000004</v>
       </c>
       <c r="BJ26" s="1">
-        <v>19.694286</v>
+        <v>19.694286000000002</v>
       </c>
       <c r="BK26" s="1">
-        <v>1370.300000</v>
+        <v>1370.3</v>
       </c>
       <c r="BL26" s="1">
-        <v>-357.604000</v>
+        <v>-357.60399999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>70910.196515</v>
+        <v>70910.196515000003</v>
       </c>
       <c r="BO26" s="1">
         <v>19.697277</v>
       </c>
       <c r="BP26" s="1">
-        <v>1486.380000</v>
+        <v>1486.38</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-578.852000</v>
+        <v>-578.85199999999998</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>70920.877049</v>
+        <v>70920.877049000002</v>
       </c>
       <c r="BT26" s="1">
-        <v>19.700244</v>
+        <v>19.700244000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1619.480000</v>
+        <v>1619.48</v>
       </c>
       <c r="BV26" s="1">
-        <v>-827.256000</v>
+        <v>-827.25599999999997</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>70931.937652</v>
+        <v>70931.937651999993</v>
       </c>
       <c r="BY26" s="1">
-        <v>19.703316</v>
+        <v>19.703316000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1773.410000</v>
+        <v>1773.41</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1096.420000</v>
+        <v>-1096.42</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>70945.408199</v>
+        <v>70945.408198999998</v>
       </c>
       <c r="CD26" s="1">
         <v>19.707058</v>
       </c>
       <c r="CE26" s="1">
-        <v>2189.950000</v>
+        <v>2189.9499999999998</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1745.420000</v>
+        <v>-1745.42</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>